--- a/01_ProjectPlanning/ProductBurndown.xlsx
+++ b/01_ProjectPlanning/ProductBurndown.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Dropbox\Schule\SYP\Planing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Schule\SYP\Planing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -417,142 +417,142 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="46"/>
                 <c:pt idx="0" formatCode="0.0">
-                  <c:v>155</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>155</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>152</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>152</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>152</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>147</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>147</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>145.29310344827587</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>143.58620689655174</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>140.93103448275863</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>137.51724137931035</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>135.05172413793105</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>133.15517241379311</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>131.25862068965517</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>129.93103448275863</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>128.60344827586209</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>127.27586206896554</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>126.32758620689657</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>125.3793103448276</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>124.43103448275863</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>121.01724137931036</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>117.60344827586209</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>114.18965517241382</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>110.77586206896555</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>107.36206896551728</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>103.94827586206901</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>100.53448275862074</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>97.12068965517247</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>93.706896551724199</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>90.293103448275929</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>86.879310344827658</c:v>
+                  <c:v>71.578947368421055</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>83.465517241379388</c:v>
+                  <c:v>69.15789473684211</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>80.051724137931117</c:v>
+                  <c:v>66.736842105263165</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>76.637931034482847</c:v>
+                  <c:v>64.31578947368422</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>73.224137931034576</c:v>
+                  <c:v>61.894736842105274</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>69.810344827586306</c:v>
+                  <c:v>59.473684210526329</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>66.396551724138035</c:v>
+                  <c:v>57.052631578947384</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>62.982758620689758</c:v>
+                  <c:v>54.631578947368439</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>59.56896551724148</c:v>
+                  <c:v>52.210526315789494</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>56.155172413793203</c:v>
+                  <c:v>49.789473684210549</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>52.741379310344925</c:v>
+                  <c:v>47.368421052631604</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>48.758620689655274</c:v>
+                  <c:v>44.54385964912283</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>44.775862068965623</c:v>
+                  <c:v>41.719298245614056</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>40.793103448275971</c:v>
+                  <c:v>38.894736842105281</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>36.81034482758632</c:v>
+                  <c:v>36.070175438596507</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>32.827586206896669</c:v>
+                  <c:v>33.245614035087733</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1038,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,17 +1071,17 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="B3" s="2">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="D3" s="3">
         <f>B3/C3</f>
-        <v>4.8666666666666663</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="F7" s="7">
         <f>A3</f>
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="J7" s="8">
         <f>A3</f>
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="K7" s="9">
         <f>IF(OR(ISBLANK(D7),ISBLANK(E7)),'[1]Sheet 1 - Initial'!D7,H7/(I7+E7))</f>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="F8" s="8">
         <f>J7+C8</f>
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7">
         <f>H7</f>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="J8" s="7">
         <f t="shared" ref="J8:J52" si="3">MAX(IF(OR(ISBLANK(D8),ISBLANK(E8)),F8-K7*B8,F8-D8),0)</f>
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="K8" s="9">
         <f t="shared" ref="K8:K52" si="4">IF(OR(ISBLANK(D8),ISBLANK(E8)),K7,H8/(I8+E8))</f>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="F9" s="7">
         <f t="shared" ref="F9:F52" si="5">J8+C9</f>
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" ref="G9:G52" si="6">H8</f>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="J9" s="7">
         <f t="shared" si="3"/>
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="K9" s="9">
         <f t="shared" si="4"/>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="F10" s="7">
         <f t="shared" si="5"/>
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" si="6"/>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="J10" s="7">
         <f t="shared" si="3"/>
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="K10" s="9">
         <f t="shared" si="4"/>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="F11" s="7">
         <f t="shared" si="5"/>
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" si="6"/>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="J11" s="7">
         <f t="shared" si="3"/>
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="K11" s="9">
         <f t="shared" si="4"/>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="F12" s="7">
         <f t="shared" si="5"/>
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="G12" s="7">
         <f t="shared" si="6"/>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="J12" s="7">
         <f t="shared" si="3"/>
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="K12" s="9">
         <f t="shared" si="4"/>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="F13" s="7">
         <f t="shared" si="5"/>
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="G13" s="7">
         <f t="shared" si="6"/>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="J13" s="7">
         <f t="shared" si="3"/>
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="K13" s="9">
         <f t="shared" si="4"/>
@@ -1421,11 +1421,15 @@
         <v>9</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>9</v>
+      </c>
       <c r="F14" s="7">
         <f t="shared" si="5"/>
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="6"/>
@@ -1441,11 +1445,11 @@
       </c>
       <c r="J14" s="7">
         <f t="shared" si="3"/>
-        <v>145.29310344827587</v>
+        <v>109</v>
       </c>
       <c r="K14" s="9">
         <f t="shared" si="4"/>
-        <v>0.18965517241379309</v>
+        <v>0.16417910447761194</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1457,11 +1461,15 @@
         <v>9</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>9</v>
+      </c>
       <c r="F15" s="7">
         <f t="shared" si="5"/>
-        <v>145.29310344827587</v>
+        <v>109</v>
       </c>
       <c r="G15" s="7">
         <f t="shared" si="6"/>
@@ -1473,15 +1481,15 @@
       </c>
       <c r="I15" s="7">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="J15" s="7">
         <f t="shared" si="3"/>
-        <v>143.58620689655174</v>
+        <v>109</v>
       </c>
       <c r="K15" s="9">
         <f t="shared" si="4"/>
-        <v>0.18965517241379309</v>
+        <v>0.14473684210526316</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1493,11 +1501,15 @@
         <v>14</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>13</v>
+      </c>
       <c r="F16" s="7">
         <f t="shared" si="5"/>
-        <v>143.58620689655174</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7">
         <f t="shared" si="6"/>
@@ -1509,15 +1521,15 @@
       </c>
       <c r="I16" s="7">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="J16" s="7">
         <f t="shared" si="3"/>
-        <v>140.93103448275863</v>
+        <v>109</v>
       </c>
       <c r="K16" s="9">
         <f t="shared" si="4"/>
-        <v>0.18965517241379309</v>
+        <v>0.12359550561797752</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1529,11 +1541,15 @@
         <v>18</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>13</v>
+      </c>
       <c r="F17" s="7">
         <f t="shared" si="5"/>
-        <v>140.93103448275863</v>
+        <v>109</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="6"/>
@@ -1545,15 +1561,15 @@
       </c>
       <c r="I17" s="7">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="J17" s="7">
         <f t="shared" si="3"/>
-        <v>137.51724137931035</v>
+        <v>109</v>
       </c>
       <c r="K17" s="9">
         <f t="shared" si="4"/>
-        <v>0.18965517241379309</v>
+        <v>0.10784313725490197</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1565,11 +1581,15 @@
         <v>13</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>9</v>
+      </c>
       <c r="F18" s="7">
         <f t="shared" si="5"/>
-        <v>137.51724137931035</v>
+        <v>109</v>
       </c>
       <c r="G18" s="7">
         <f t="shared" si="6"/>
@@ -1581,15 +1601,15 @@
       </c>
       <c r="I18" s="7">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="J18" s="7">
         <f t="shared" si="3"/>
-        <v>135.05172413793105</v>
+        <v>109</v>
       </c>
       <c r="K18" s="9">
         <f t="shared" si="4"/>
-        <v>0.18965517241379309</v>
+        <v>9.90990990990991E-2</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1601,11 +1621,15 @@
         <v>10</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>10</v>
+      </c>
       <c r="F19" s="7">
         <f t="shared" si="5"/>
-        <v>135.05172413793105</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="6"/>
@@ -1617,15 +1641,15 @@
       </c>
       <c r="I19" s="7">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="J19" s="7">
         <f t="shared" si="3"/>
-        <v>133.15517241379311</v>
+        <v>109</v>
       </c>
       <c r="K19" s="9">
         <f t="shared" si="4"/>
-        <v>0.18965517241379309</v>
+        <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1637,11 +1661,15 @@
         <v>10</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
+        <v>10</v>
+      </c>
       <c r="F20" s="7">
         <f t="shared" si="5"/>
-        <v>133.15517241379311</v>
+        <v>109</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" si="6"/>
@@ -1653,15 +1681,15 @@
       </c>
       <c r="I20" s="7">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="J20" s="7">
         <f t="shared" si="3"/>
-        <v>131.25862068965517</v>
+        <v>109</v>
       </c>
       <c r="K20" s="9">
         <f t="shared" si="4"/>
-        <v>0.18965517241379309</v>
+        <v>8.3969465648854963E-2</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1673,11 +1701,15 @@
         <v>7</v>
       </c>
       <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>7</v>
+      </c>
       <c r="F21" s="7">
         <f t="shared" si="5"/>
-        <v>131.25862068965517</v>
+        <v>109</v>
       </c>
       <c r="G21" s="7">
         <f t="shared" si="6"/>
@@ -1689,15 +1721,15 @@
       </c>
       <c r="I21" s="7">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="J21" s="7">
         <f t="shared" si="3"/>
-        <v>129.93103448275863</v>
+        <v>109</v>
       </c>
       <c r="K21" s="9">
         <f t="shared" si="4"/>
-        <v>0.18965517241379309</v>
+        <v>7.9710144927536225E-2</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1709,11 +1741,15 @@
         <v>7</v>
       </c>
       <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
       <c r="F22" s="7">
         <f t="shared" si="5"/>
-        <v>129.93103448275863</v>
+        <v>109</v>
       </c>
       <c r="G22" s="7">
         <f t="shared" si="6"/>
@@ -1725,15 +1761,15 @@
       </c>
       <c r="I22" s="7">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="J22" s="7">
         <f t="shared" si="3"/>
-        <v>128.60344827586209</v>
+        <v>109</v>
       </c>
       <c r="K22" s="9">
         <f t="shared" si="4"/>
-        <v>0.18965517241379309</v>
+        <v>7.9710144927536225E-2</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1745,11 +1781,15 @@
         <v>7</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>7</v>
+      </c>
       <c r="F23" s="7">
         <f t="shared" si="5"/>
-        <v>128.60344827586209</v>
+        <v>109</v>
       </c>
       <c r="G23" s="7">
         <f t="shared" si="6"/>
@@ -1761,15 +1801,15 @@
       </c>
       <c r="I23" s="7">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="J23" s="7">
         <f t="shared" si="3"/>
-        <v>127.27586206896554</v>
+        <v>109</v>
       </c>
       <c r="K23" s="9">
         <f t="shared" si="4"/>
-        <v>0.18965517241379309</v>
+        <v>7.586206896551724E-2</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1781,11 +1821,15 @@
         <v>5</v>
       </c>
       <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="D24" s="6">
+        <v>3</v>
+      </c>
+      <c r="E24" s="6">
+        <v>5</v>
+      </c>
       <c r="F24" s="7">
         <f t="shared" si="5"/>
-        <v>127.27586206896554</v>
+        <v>109</v>
       </c>
       <c r="G24" s="7">
         <f t="shared" si="6"/>
@@ -1793,19 +1837,19 @@
       </c>
       <c r="H24" s="7">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I24" s="7">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>145</v>
       </c>
       <c r="J24" s="7">
         <f t="shared" si="3"/>
-        <v>126.32758620689657</v>
+        <v>106</v>
       </c>
       <c r="K24" s="9">
         <f t="shared" si="4"/>
-        <v>0.18965517241379309</v>
+        <v>9.3333333333333338E-2</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1817,31 +1861,35 @@
         <v>5</v>
       </c>
       <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <v>5</v>
+      </c>
       <c r="F25" s="7">
         <f t="shared" si="5"/>
-        <v>126.32758620689657</v>
+        <v>106</v>
       </c>
       <c r="G25" s="7">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I25" s="7">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="J25" s="7">
         <f t="shared" si="3"/>
-        <v>125.3793103448276</v>
+        <v>106</v>
       </c>
       <c r="K25" s="9">
         <f t="shared" si="4"/>
-        <v>0.18965517241379309</v>
+        <v>9.0322580645161285E-2</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1853,31 +1901,35 @@
         <v>5</v>
       </c>
       <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
+        <v>5</v>
+      </c>
       <c r="F26" s="7">
         <f t="shared" si="5"/>
-        <v>125.3793103448276</v>
+        <v>106</v>
       </c>
       <c r="G26" s="7">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H26" s="7">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I26" s="7">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>155</v>
       </c>
       <c r="J26" s="7">
         <f t="shared" si="3"/>
-        <v>124.43103448275863</v>
+        <v>106</v>
       </c>
       <c r="K26" s="9">
         <f t="shared" si="4"/>
-        <v>0.18965517241379309</v>
+        <v>8.7499999999999994E-2</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1889,31 +1941,35 @@
         <v>18</v>
       </c>
       <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="D27" s="6">
+        <v>5</v>
+      </c>
+      <c r="E27" s="6">
+        <v>18</v>
+      </c>
       <c r="F27" s="7">
         <f t="shared" si="5"/>
-        <v>124.43103448275863</v>
+        <v>106</v>
       </c>
       <c r="G27" s="7">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H27" s="7">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I27" s="7">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>160</v>
       </c>
       <c r="J27" s="7">
         <f t="shared" si="3"/>
-        <v>121.01724137931036</v>
+        <v>101</v>
       </c>
       <c r="K27" s="9">
         <f t="shared" si="4"/>
-        <v>0.18965517241379309</v>
+        <v>0.10674157303370786</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1925,31 +1981,35 @@
         <v>18</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+      <c r="D28" s="6">
+        <v>12</v>
+      </c>
+      <c r="E28" s="6">
+        <v>20</v>
+      </c>
       <c r="F28" s="7">
         <f t="shared" si="5"/>
-        <v>121.01724137931036</v>
+        <v>101</v>
       </c>
       <c r="G28" s="7">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="I28" s="7">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>178</v>
       </c>
       <c r="J28" s="7">
         <f t="shared" si="3"/>
-        <v>117.60344827586209</v>
+        <v>89</v>
       </c>
       <c r="K28" s="9">
         <f t="shared" si="4"/>
-        <v>0.18965517241379309</v>
+        <v>0.15656565656565657</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1961,31 +2021,35 @@
         <v>18</v>
       </c>
       <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
+      <c r="D29" s="6">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6">
+        <v>18</v>
+      </c>
       <c r="F29" s="7">
         <f t="shared" si="5"/>
-        <v>117.60344827586209</v>
+        <v>89</v>
       </c>
       <c r="G29" s="7">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="H29" s="7">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="I29" s="7">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>198</v>
       </c>
       <c r="J29" s="7">
         <f t="shared" si="3"/>
-        <v>114.18965517241382</v>
+        <v>89</v>
       </c>
       <c r="K29" s="9">
         <f t="shared" si="4"/>
-        <v>0.18965517241379309</v>
+        <v>0.14351851851851852</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1997,31 +2061,35 @@
         <v>18</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+      <c r="D30" s="6">
+        <v>5</v>
+      </c>
+      <c r="E30" s="6">
+        <v>18</v>
+      </c>
       <c r="F30" s="7">
         <f t="shared" si="5"/>
-        <v>114.18965517241382</v>
+        <v>89</v>
       </c>
       <c r="G30" s="7">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="H30" s="7">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="I30" s="7">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>216</v>
       </c>
       <c r="J30" s="7">
         <f t="shared" si="3"/>
-        <v>110.77586206896555</v>
+        <v>84</v>
       </c>
       <c r="K30" s="9">
         <f t="shared" si="4"/>
-        <v>0.18965517241379309</v>
+        <v>0.15384615384615385</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2033,31 +2101,35 @@
         <v>18</v>
       </c>
       <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+      <c r="D31" s="6">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6">
+        <v>18</v>
+      </c>
       <c r="F31" s="7">
         <f t="shared" si="5"/>
-        <v>110.77586206896555</v>
+        <v>84</v>
       </c>
       <c r="G31" s="7">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="H31" s="7">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="I31" s="7">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>234</v>
       </c>
       <c r="J31" s="7">
         <f t="shared" si="3"/>
-        <v>107.36206896551728</v>
+        <v>84</v>
       </c>
       <c r="K31" s="9">
         <f t="shared" si="4"/>
-        <v>0.18965517241379309</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2069,31 +2141,35 @@
         <v>18</v>
       </c>
       <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+      <c r="D32" s="6">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6">
+        <v>18</v>
+      </c>
       <c r="F32" s="7">
         <f t="shared" si="5"/>
-        <v>107.36206896551728</v>
+        <v>84</v>
       </c>
       <c r="G32" s="7">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="H32" s="7">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="I32" s="7">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>252</v>
       </c>
       <c r="J32" s="7">
         <f t="shared" si="3"/>
-        <v>103.94827586206901</v>
+        <v>84</v>
       </c>
       <c r="K32" s="9">
         <f t="shared" si="4"/>
-        <v>0.18965517241379309</v>
+        <v>0.13333333333333333</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2105,31 +2181,35 @@
         <v>18</v>
       </c>
       <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
+      <c r="D33" s="6">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6">
+        <v>18</v>
+      </c>
       <c r="F33" s="7">
         <f t="shared" si="5"/>
-        <v>103.94827586206901</v>
+        <v>84</v>
       </c>
       <c r="G33" s="7">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="H33" s="7">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="I33" s="7">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>270</v>
       </c>
       <c r="J33" s="7">
         <f t="shared" si="3"/>
-        <v>100.53448275862074</v>
+        <v>84</v>
       </c>
       <c r="K33" s="9">
         <f t="shared" si="4"/>
-        <v>0.18965517241379309</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2141,31 +2221,35 @@
         <v>18</v>
       </c>
       <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
+      <c r="D34" s="6">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6">
+        <v>18</v>
+      </c>
       <c r="F34" s="7">
         <f t="shared" si="5"/>
-        <v>100.53448275862074</v>
+        <v>84</v>
       </c>
       <c r="G34" s="7">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="H34" s="7">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="I34" s="7">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>288</v>
       </c>
       <c r="J34" s="7">
         <f t="shared" si="3"/>
-        <v>97.12068965517247</v>
+        <v>84</v>
       </c>
       <c r="K34" s="9">
         <f t="shared" si="4"/>
-        <v>0.18965517241379309</v>
+        <v>0.11764705882352941</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2177,31 +2261,35 @@
         <v>18</v>
       </c>
       <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
+      <c r="D35" s="6">
+        <v>5</v>
+      </c>
+      <c r="E35" s="6">
+        <v>18</v>
+      </c>
       <c r="F35" s="7">
         <f t="shared" si="5"/>
-        <v>97.12068965517247</v>
+        <v>84</v>
       </c>
       <c r="G35" s="7">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="H35" s="7">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="I35" s="7">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>306</v>
       </c>
       <c r="J35" s="7">
         <f t="shared" si="3"/>
-        <v>93.706896551724199</v>
+        <v>79</v>
       </c>
       <c r="K35" s="9">
         <f t="shared" si="4"/>
-        <v>0.18965517241379309</v>
+        <v>0.12654320987654322</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2213,31 +2301,35 @@
         <v>18</v>
       </c>
       <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
+      <c r="D36" s="6">
+        <v>5</v>
+      </c>
+      <c r="E36" s="6">
+        <v>18</v>
+      </c>
       <c r="F36" s="7">
         <f t="shared" si="5"/>
-        <v>93.706896551724199</v>
+        <v>79</v>
       </c>
       <c r="G36" s="7">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="H36" s="7">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="I36" s="7">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>324</v>
       </c>
       <c r="J36" s="7">
         <f t="shared" si="3"/>
-        <v>90.293103448275929</v>
+        <v>74</v>
       </c>
       <c r="K36" s="9">
         <f t="shared" si="4"/>
-        <v>0.18965517241379309</v>
+        <v>0.13450292397660818</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2253,27 +2345,27 @@
       <c r="E37" s="6"/>
       <c r="F37" s="7">
         <f t="shared" si="5"/>
-        <v>90.293103448275929</v>
+        <v>74</v>
       </c>
       <c r="G37" s="7">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="H37" s="7">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="I37" s="7">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>342</v>
       </c>
       <c r="J37" s="7">
         <f t="shared" si="3"/>
-        <v>86.879310344827658</v>
+        <v>71.578947368421055</v>
       </c>
       <c r="K37" s="9">
         <f t="shared" si="4"/>
-        <v>0.18965517241379309</v>
+        <v>0.13450292397660818</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2289,27 +2381,27 @@
       <c r="E38" s="6"/>
       <c r="F38" s="7">
         <f t="shared" si="5"/>
-        <v>86.879310344827658</v>
+        <v>71.578947368421055</v>
       </c>
       <c r="G38" s="7">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="H38" s="7">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="I38" s="7">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>342</v>
       </c>
       <c r="J38" s="7">
         <f t="shared" si="3"/>
-        <v>83.465517241379388</v>
+        <v>69.15789473684211</v>
       </c>
       <c r="K38" s="9">
         <f t="shared" si="4"/>
-        <v>0.18965517241379309</v>
+        <v>0.13450292397660818</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2325,27 +2417,27 @@
       <c r="E39" s="6"/>
       <c r="F39" s="7">
         <f t="shared" si="5"/>
-        <v>83.465517241379388</v>
+        <v>69.15789473684211</v>
       </c>
       <c r="G39" s="7">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="H39" s="7">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="I39" s="7">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>342</v>
       </c>
       <c r="J39" s="7">
         <f t="shared" si="3"/>
-        <v>80.051724137931117</v>
+        <v>66.736842105263165</v>
       </c>
       <c r="K39" s="9">
         <f t="shared" si="4"/>
-        <v>0.18965517241379309</v>
+        <v>0.13450292397660818</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2361,27 +2453,27 @@
       <c r="E40" s="6"/>
       <c r="F40" s="7">
         <f t="shared" si="5"/>
-        <v>80.051724137931117</v>
+        <v>66.736842105263165</v>
       </c>
       <c r="G40" s="7">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="H40" s="7">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="I40" s="7">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>342</v>
       </c>
       <c r="J40" s="7">
         <f t="shared" si="3"/>
-        <v>76.637931034482847</v>
+        <v>64.31578947368422</v>
       </c>
       <c r="K40" s="9">
         <f t="shared" si="4"/>
-        <v>0.18965517241379309</v>
+        <v>0.13450292397660818</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2397,27 +2489,27 @@
       <c r="E41" s="6"/>
       <c r="F41" s="7">
         <f t="shared" si="5"/>
-        <v>76.637931034482847</v>
+        <v>64.31578947368422</v>
       </c>
       <c r="G41" s="7">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="H41" s="7">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="I41" s="7">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>342</v>
       </c>
       <c r="J41" s="7">
         <f t="shared" si="3"/>
-        <v>73.224137931034576</v>
+        <v>61.894736842105274</v>
       </c>
       <c r="K41" s="9">
         <f t="shared" si="4"/>
-        <v>0.18965517241379309</v>
+        <v>0.13450292397660818</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2433,27 +2525,27 @@
       <c r="E42" s="6"/>
       <c r="F42" s="7">
         <f t="shared" si="5"/>
-        <v>73.224137931034576</v>
+        <v>61.894736842105274</v>
       </c>
       <c r="G42" s="7">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="H42" s="7">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="I42" s="7">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>342</v>
       </c>
       <c r="J42" s="7">
         <f t="shared" si="3"/>
-        <v>69.810344827586306</v>
+        <v>59.473684210526329</v>
       </c>
       <c r="K42" s="9">
         <f t="shared" si="4"/>
-        <v>0.18965517241379309</v>
+        <v>0.13450292397660818</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2469,27 +2561,27 @@
       <c r="E43" s="6"/>
       <c r="F43" s="7">
         <f t="shared" si="5"/>
-        <v>69.810344827586306</v>
+        <v>59.473684210526329</v>
       </c>
       <c r="G43" s="7">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="H43" s="7">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="I43" s="7">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>342</v>
       </c>
       <c r="J43" s="7">
         <f t="shared" si="3"/>
-        <v>66.396551724138035</v>
+        <v>57.052631578947384</v>
       </c>
       <c r="K43" s="9">
         <f t="shared" si="4"/>
-        <v>0.18965517241379309</v>
+        <v>0.13450292397660818</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -2505,27 +2597,27 @@
       <c r="E44" s="6"/>
       <c r="F44" s="7">
         <f t="shared" si="5"/>
-        <v>66.396551724138035</v>
+        <v>57.052631578947384</v>
       </c>
       <c r="G44" s="7">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="H44" s="7">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="I44" s="7">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>342</v>
       </c>
       <c r="J44" s="7">
         <f t="shared" si="3"/>
-        <v>62.982758620689758</v>
+        <v>54.631578947368439</v>
       </c>
       <c r="K44" s="9">
         <f t="shared" si="4"/>
-        <v>0.18965517241379309</v>
+        <v>0.13450292397660818</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2541,27 +2633,27 @@
       <c r="E45" s="6"/>
       <c r="F45" s="7">
         <f t="shared" si="5"/>
-        <v>62.982758620689758</v>
+        <v>54.631578947368439</v>
       </c>
       <c r="G45" s="7">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="H45" s="7">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="I45" s="7">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>342</v>
       </c>
       <c r="J45" s="7">
         <f t="shared" si="3"/>
-        <v>59.56896551724148</v>
+        <v>52.210526315789494</v>
       </c>
       <c r="K45" s="9">
         <f t="shared" si="4"/>
-        <v>0.18965517241379309</v>
+        <v>0.13450292397660818</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2577,27 +2669,27 @@
       <c r="E46" s="6"/>
       <c r="F46" s="7">
         <f t="shared" si="5"/>
-        <v>59.56896551724148</v>
+        <v>52.210526315789494</v>
       </c>
       <c r="G46" s="7">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="H46" s="7">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="I46" s="7">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>342</v>
       </c>
       <c r="J46" s="7">
         <f t="shared" si="3"/>
-        <v>56.155172413793203</v>
+        <v>49.789473684210549</v>
       </c>
       <c r="K46" s="9">
         <f t="shared" si="4"/>
-        <v>0.18965517241379309</v>
+        <v>0.13450292397660818</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -2613,27 +2705,27 @@
       <c r="E47" s="6"/>
       <c r="F47" s="7">
         <f t="shared" si="5"/>
-        <v>56.155172413793203</v>
+        <v>49.789473684210549</v>
       </c>
       <c r="G47" s="7">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="H47" s="7">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="I47" s="7">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>342</v>
       </c>
       <c r="J47" s="7">
         <f t="shared" si="3"/>
-        <v>52.741379310344925</v>
+        <v>47.368421052631604</v>
       </c>
       <c r="K47" s="9">
         <f t="shared" si="4"/>
-        <v>0.18965517241379309</v>
+        <v>0.13450292397660818</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2649,27 +2741,27 @@
       <c r="E48" s="6"/>
       <c r="F48" s="7">
         <f t="shared" si="5"/>
-        <v>52.741379310344925</v>
+        <v>47.368421052631604</v>
       </c>
       <c r="G48" s="7">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="H48" s="7">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="I48" s="7">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>342</v>
       </c>
       <c r="J48" s="7">
         <f t="shared" si="3"/>
-        <v>48.758620689655274</v>
+        <v>44.54385964912283</v>
       </c>
       <c r="K48" s="9">
         <f t="shared" si="4"/>
-        <v>0.18965517241379309</v>
+        <v>0.13450292397660818</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -2685,27 +2777,27 @@
       <c r="E49" s="6"/>
       <c r="F49" s="7">
         <f t="shared" si="5"/>
-        <v>48.758620689655274</v>
+        <v>44.54385964912283</v>
       </c>
       <c r="G49" s="7">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="H49" s="7">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="I49" s="7">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>342</v>
       </c>
       <c r="J49" s="7">
         <f t="shared" si="3"/>
-        <v>44.775862068965623</v>
+        <v>41.719298245614056</v>
       </c>
       <c r="K49" s="9">
         <f t="shared" si="4"/>
-        <v>0.18965517241379309</v>
+        <v>0.13450292397660818</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -2721,27 +2813,27 @@
       <c r="E50" s="6"/>
       <c r="F50" s="7">
         <f t="shared" si="5"/>
-        <v>44.775862068965623</v>
+        <v>41.719298245614056</v>
       </c>
       <c r="G50" s="7">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="H50" s="7">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="I50" s="7">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>342</v>
       </c>
       <c r="J50" s="7">
         <f t="shared" si="3"/>
-        <v>40.793103448275971</v>
+        <v>38.894736842105281</v>
       </c>
       <c r="K50" s="9">
         <f t="shared" si="4"/>
-        <v>0.18965517241379309</v>
+        <v>0.13450292397660818</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -2757,27 +2849,27 @@
       <c r="E51" s="6"/>
       <c r="F51" s="7">
         <f t="shared" si="5"/>
-        <v>40.793103448275971</v>
+        <v>38.894736842105281</v>
       </c>
       <c r="G51" s="7">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="H51" s="7">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="I51" s="7">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>342</v>
       </c>
       <c r="J51" s="7">
         <f t="shared" si="3"/>
-        <v>36.81034482758632</v>
+        <v>36.070175438596507</v>
       </c>
       <c r="K51" s="9">
         <f t="shared" si="4"/>
-        <v>0.18965517241379309</v>
+        <v>0.13450292397660818</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -2793,27 +2885,27 @@
       <c r="E52" s="6"/>
       <c r="F52" s="7">
         <f t="shared" si="5"/>
-        <v>36.81034482758632</v>
+        <v>36.070175438596507</v>
       </c>
       <c r="G52" s="7">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="H52" s="7">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="I52" s="7">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>342</v>
       </c>
       <c r="J52" s="7">
         <f t="shared" si="3"/>
-        <v>32.827586206896669</v>
+        <v>33.245614035087733</v>
       </c>
       <c r="K52" s="9">
         <f t="shared" si="4"/>
-        <v>0.18965517241379309</v>
+        <v>0.13450292397660818</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -2825,11 +2917,11 @@
       <c r="C53" s="11"/>
       <c r="D53" s="11">
         <f>AVERAGE(D7:D52)</f>
-        <v>1.5714285714285714</v>
+        <v>1.5333333333333334</v>
       </c>
       <c r="E53" s="11">
         <f>AVERAGE(E7:E52)</f>
-        <v>8.2857142857142865</v>
+        <v>11.4</v>
       </c>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>

--- a/01_ProjectPlanning/ProductBurndown.xlsx
+++ b/01_ProjectPlanning/ProductBurndown.xlsx
@@ -417,142 +417,142 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="46"/>
                 <c:pt idx="0" formatCode="0.0">
-                  <c:v>117</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>117</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>114</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>114</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>114</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>109</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>109</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>109</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>109</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>109</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>109</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>109</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>109</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>109</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>109</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>106</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>101</c:v>
-                </c:pt>
                 <c:pt idx="21">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>89</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>89</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>71.578947368421055</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>69.15789473684211</c:v>
+                  <c:v>71.315789473684205</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>66.736842105263165</c:v>
+                  <c:v>68.631578947368411</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>64.31578947368422</c:v>
+                  <c:v>65.947368421052616</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>61.894736842105274</c:v>
+                  <c:v>63.263157894736828</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>59.473684210526329</c:v>
+                  <c:v>60.578947368421041</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>57.052631578947384</c:v>
+                  <c:v>57.894736842105253</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>54.631578947368439</c:v>
+                  <c:v>55.210526315789465</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>52.210526315789494</c:v>
+                  <c:v>52.526315789473678</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>49.789473684210549</c:v>
+                  <c:v>49.84210526315789</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>47.368421052631604</c:v>
+                  <c:v>47.157894736842103</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>44.54385964912283</c:v>
+                  <c:v>44.026315789473685</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>41.719298245614056</c:v>
+                  <c:v>40.894736842105267</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>38.894736842105281</c:v>
+                  <c:v>37.76315789473685</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>36.070175438596507</c:v>
+                  <c:v>34.631578947368432</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>33.245614035087733</c:v>
+                  <c:v>31.500000000000011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -706,7 +706,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1038,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,7 +1077,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B3" s="2">
         <v>49</v>
@@ -1150,7 +1156,7 @@
       </c>
       <c r="F7" s="7">
         <f>A3</f>
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
@@ -1165,7 +1171,7 @@
       </c>
       <c r="J7" s="8">
         <f>A3</f>
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="K7" s="9">
         <f>IF(OR(ISBLANK(D7),ISBLANK(E7)),'[1]Sheet 1 - Initial'!D7,H7/(I7+E7))</f>
@@ -1189,7 +1195,7 @@
       </c>
       <c r="F8" s="8">
         <f>J7+C8</f>
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G8" s="7">
         <f>H7</f>
@@ -1205,7 +1211,7 @@
       </c>
       <c r="J8" s="7">
         <f t="shared" ref="J8:J52" si="3">MAX(IF(OR(ISBLANK(D8),ISBLANK(E8)),F8-K7*B8,F8-D8),0)</f>
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="K8" s="9">
         <f t="shared" ref="K8:K52" si="4">IF(OR(ISBLANK(D8),ISBLANK(E8)),K7,H8/(I8+E8))</f>
@@ -1229,7 +1235,7 @@
       </c>
       <c r="F9" s="7">
         <f t="shared" ref="F9:F52" si="5">J8+C9</f>
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" ref="G9:G52" si="6">H8</f>
@@ -1245,7 +1251,7 @@
       </c>
       <c r="J9" s="7">
         <f t="shared" si="3"/>
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="K9" s="9">
         <f t="shared" si="4"/>
@@ -1269,7 +1275,7 @@
       </c>
       <c r="F10" s="7">
         <f t="shared" si="5"/>
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" si="6"/>
@@ -1285,7 +1291,7 @@
       </c>
       <c r="J10" s="7">
         <f t="shared" si="3"/>
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="K10" s="9">
         <f t="shared" si="4"/>
@@ -1309,7 +1315,7 @@
       </c>
       <c r="F11" s="7">
         <f t="shared" si="5"/>
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" si="6"/>
@@ -1325,7 +1331,7 @@
       </c>
       <c r="J11" s="7">
         <f t="shared" si="3"/>
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="K11" s="9">
         <f t="shared" si="4"/>
@@ -1349,23 +1355,23 @@
       </c>
       <c r="F12" s="7">
         <f t="shared" si="5"/>
+        <v>119</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="I12" s="7">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="J12" s="7">
+        <f t="shared" si="3"/>
         <v>114</v>
-      </c>
-      <c r="G12" s="7">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="H12" s="7">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="I12" s="7">
-        <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="J12" s="7">
-        <f t="shared" si="3"/>
-        <v>109</v>
       </c>
       <c r="K12" s="9">
         <f t="shared" si="4"/>
@@ -1389,7 +1395,7 @@
       </c>
       <c r="F13" s="7">
         <f t="shared" si="5"/>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G13" s="7">
         <f t="shared" si="6"/>
@@ -1405,7 +1411,7 @@
       </c>
       <c r="J13" s="7">
         <f t="shared" si="3"/>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K13" s="9">
         <f t="shared" si="4"/>
@@ -1429,7 +1435,7 @@
       </c>
       <c r="F14" s="7">
         <f t="shared" si="5"/>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="6"/>
@@ -1445,7 +1451,7 @@
       </c>
       <c r="J14" s="7">
         <f t="shared" si="3"/>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K14" s="9">
         <f t="shared" si="4"/>
@@ -1469,7 +1475,7 @@
       </c>
       <c r="F15" s="7">
         <f t="shared" si="5"/>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G15" s="7">
         <f t="shared" si="6"/>
@@ -1485,7 +1491,7 @@
       </c>
       <c r="J15" s="7">
         <f t="shared" si="3"/>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K15" s="9">
         <f t="shared" si="4"/>
@@ -1509,7 +1515,7 @@
       </c>
       <c r="F16" s="7">
         <f t="shared" si="5"/>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G16" s="7">
         <f t="shared" si="6"/>
@@ -1525,7 +1531,7 @@
       </c>
       <c r="J16" s="7">
         <f t="shared" si="3"/>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K16" s="9">
         <f t="shared" si="4"/>
@@ -1549,7 +1555,7 @@
       </c>
       <c r="F17" s="7">
         <f t="shared" si="5"/>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="6"/>
@@ -1565,7 +1571,7 @@
       </c>
       <c r="J17" s="7">
         <f t="shared" si="3"/>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K17" s="9">
         <f t="shared" si="4"/>
@@ -1589,7 +1595,7 @@
       </c>
       <c r="F18" s="7">
         <f t="shared" si="5"/>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G18" s="7">
         <f t="shared" si="6"/>
@@ -1605,7 +1611,7 @@
       </c>
       <c r="J18" s="7">
         <f t="shared" si="3"/>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K18" s="9">
         <f t="shared" si="4"/>
@@ -1629,7 +1635,7 @@
       </c>
       <c r="F19" s="7">
         <f t="shared" si="5"/>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="6"/>
@@ -1645,7 +1651,7 @@
       </c>
       <c r="J19" s="7">
         <f t="shared" si="3"/>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K19" s="9">
         <f t="shared" si="4"/>
@@ -1669,7 +1675,7 @@
       </c>
       <c r="F20" s="7">
         <f t="shared" si="5"/>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" si="6"/>
@@ -1685,7 +1691,7 @@
       </c>
       <c r="J20" s="7">
         <f t="shared" si="3"/>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K20" s="9">
         <f t="shared" si="4"/>
@@ -1709,7 +1715,7 @@
       </c>
       <c r="F21" s="7">
         <f t="shared" si="5"/>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G21" s="7">
         <f t="shared" si="6"/>
@@ -1725,7 +1731,7 @@
       </c>
       <c r="J21" s="7">
         <f t="shared" si="3"/>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K21" s="9">
         <f t="shared" si="4"/>
@@ -1749,7 +1755,7 @@
       </c>
       <c r="F22" s="7">
         <f t="shared" si="5"/>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G22" s="7">
         <f t="shared" si="6"/>
@@ -1765,7 +1771,7 @@
       </c>
       <c r="J22" s="7">
         <f t="shared" si="3"/>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K22" s="9">
         <f t="shared" si="4"/>
@@ -1789,7 +1795,7 @@
       </c>
       <c r="F23" s="7">
         <f t="shared" si="5"/>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G23" s="7">
         <f t="shared" si="6"/>
@@ -1805,7 +1811,7 @@
       </c>
       <c r="J23" s="7">
         <f t="shared" si="3"/>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K23" s="9">
         <f t="shared" si="4"/>
@@ -1829,7 +1835,7 @@
       </c>
       <c r="F24" s="7">
         <f t="shared" si="5"/>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G24" s="7">
         <f t="shared" si="6"/>
@@ -1845,7 +1851,7 @@
       </c>
       <c r="J24" s="7">
         <f t="shared" si="3"/>
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="K24" s="9">
         <f t="shared" si="4"/>
@@ -1869,7 +1875,7 @@
       </c>
       <c r="F25" s="7">
         <f t="shared" si="5"/>
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G25" s="7">
         <f t="shared" si="6"/>
@@ -1885,7 +1891,7 @@
       </c>
       <c r="J25" s="7">
         <f t="shared" si="3"/>
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="K25" s="9">
         <f t="shared" si="4"/>
@@ -1909,7 +1915,7 @@
       </c>
       <c r="F26" s="7">
         <f t="shared" si="5"/>
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G26" s="7">
         <f t="shared" si="6"/>
@@ -1925,7 +1931,7 @@
       </c>
       <c r="J26" s="7">
         <f t="shared" si="3"/>
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="K26" s="9">
         <f t="shared" si="4"/>
@@ -1949,23 +1955,23 @@
       </c>
       <c r="F27" s="7">
         <f t="shared" si="5"/>
+        <v>111</v>
+      </c>
+      <c r="G27" s="7">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="H27" s="7">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="I27" s="7">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="J27" s="7">
+        <f t="shared" si="3"/>
         <v>106</v>
-      </c>
-      <c r="G27" s="7">
-        <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="H27" s="7">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="I27" s="7">
-        <f t="shared" si="2"/>
-        <v>160</v>
-      </c>
-      <c r="J27" s="7">
-        <f t="shared" si="3"/>
-        <v>101</v>
       </c>
       <c r="K27" s="9">
         <f t="shared" si="4"/>
@@ -1989,7 +1995,7 @@
       </c>
       <c r="F28" s="7">
         <f t="shared" si="5"/>
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G28" s="7">
         <f t="shared" si="6"/>
@@ -2005,7 +2011,7 @@
       </c>
       <c r="J28" s="7">
         <f t="shared" si="3"/>
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K28" s="9">
         <f t="shared" si="4"/>
@@ -2029,7 +2035,7 @@
       </c>
       <c r="F29" s="7">
         <f t="shared" si="5"/>
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G29" s="7">
         <f t="shared" si="6"/>
@@ -2045,7 +2051,7 @@
       </c>
       <c r="J29" s="7">
         <f t="shared" si="3"/>
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K29" s="9">
         <f t="shared" si="4"/>
@@ -2069,23 +2075,23 @@
       </c>
       <c r="F30" s="7">
         <f t="shared" si="5"/>
+        <v>94</v>
+      </c>
+      <c r="G30" s="7">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="H30" s="7">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="I30" s="7">
+        <f t="shared" si="2"/>
+        <v>216</v>
+      </c>
+      <c r="J30" s="7">
+        <f t="shared" si="3"/>
         <v>89</v>
-      </c>
-      <c r="G30" s="7">
-        <f t="shared" si="6"/>
-        <v>31</v>
-      </c>
-      <c r="H30" s="7">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="I30" s="7">
-        <f t="shared" si="2"/>
-        <v>216</v>
-      </c>
-      <c r="J30" s="7">
-        <f t="shared" si="3"/>
-        <v>84</v>
       </c>
       <c r="K30" s="9">
         <f t="shared" si="4"/>
@@ -2109,7 +2115,7 @@
       </c>
       <c r="F31" s="7">
         <f t="shared" si="5"/>
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G31" s="7">
         <f t="shared" si="6"/>
@@ -2125,7 +2131,7 @@
       </c>
       <c r="J31" s="7">
         <f t="shared" si="3"/>
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K31" s="9">
         <f t="shared" si="4"/>
@@ -2149,7 +2155,7 @@
       </c>
       <c r="F32" s="7">
         <f t="shared" si="5"/>
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G32" s="7">
         <f t="shared" si="6"/>
@@ -2165,7 +2171,7 @@
       </c>
       <c r="J32" s="7">
         <f t="shared" si="3"/>
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K32" s="9">
         <f t="shared" si="4"/>
@@ -2189,7 +2195,7 @@
       </c>
       <c r="F33" s="7">
         <f t="shared" si="5"/>
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G33" s="7">
         <f t="shared" si="6"/>
@@ -2205,7 +2211,7 @@
       </c>
       <c r="J33" s="7">
         <f t="shared" si="3"/>
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K33" s="9">
         <f t="shared" si="4"/>
@@ -2229,7 +2235,7 @@
       </c>
       <c r="F34" s="7">
         <f t="shared" si="5"/>
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G34" s="7">
         <f t="shared" si="6"/>
@@ -2245,7 +2251,7 @@
       </c>
       <c r="J34" s="7">
         <f t="shared" si="3"/>
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K34" s="9">
         <f t="shared" si="4"/>
@@ -2269,23 +2275,23 @@
       </c>
       <c r="F35" s="7">
         <f t="shared" si="5"/>
+        <v>89</v>
+      </c>
+      <c r="G35" s="7">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="H35" s="7">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="I35" s="7">
+        <f t="shared" si="2"/>
+        <v>306</v>
+      </c>
+      <c r="J35" s="7">
+        <f t="shared" si="3"/>
         <v>84</v>
-      </c>
-      <c r="G35" s="7">
-        <f t="shared" si="6"/>
-        <v>36</v>
-      </c>
-      <c r="H35" s="7">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="I35" s="7">
-        <f t="shared" si="2"/>
-        <v>306</v>
-      </c>
-      <c r="J35" s="7">
-        <f t="shared" si="3"/>
-        <v>79</v>
       </c>
       <c r="K35" s="9">
         <f t="shared" si="4"/>
@@ -2302,14 +2308,14 @@
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E36" s="6">
         <v>18</v>
       </c>
       <c r="F36" s="7">
         <f t="shared" si="5"/>
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G36" s="7">
         <f t="shared" si="6"/>
@@ -2317,7 +2323,7 @@
       </c>
       <c r="H36" s="7">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I36" s="7">
         <f t="shared" si="2"/>
@@ -2329,7 +2335,7 @@
       </c>
       <c r="K36" s="9">
         <f t="shared" si="4"/>
-        <v>0.13450292397660818</v>
+        <v>0.14912280701754385</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2341,19 +2347,23 @@
         <v>18</v>
       </c>
       <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
+      <c r="D37" s="6">
+        <v>0</v>
+      </c>
+      <c r="E37" s="6">
+        <v>0</v>
+      </c>
       <c r="F37" s="7">
         <f t="shared" si="5"/>
         <v>74</v>
       </c>
       <c r="G37" s="7">
         <f t="shared" si="6"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H37" s="7">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I37" s="7">
         <f t="shared" si="2"/>
@@ -2361,11 +2371,11 @@
       </c>
       <c r="J37" s="7">
         <f t="shared" si="3"/>
-        <v>71.578947368421055</v>
+        <v>74</v>
       </c>
       <c r="K37" s="9">
         <f t="shared" si="4"/>
-        <v>0.13450292397660818</v>
+        <v>0.14912280701754385</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2381,15 +2391,15 @@
       <c r="E38" s="6"/>
       <c r="F38" s="7">
         <f t="shared" si="5"/>
-        <v>71.578947368421055</v>
+        <v>74</v>
       </c>
       <c r="G38" s="7">
         <f t="shared" si="6"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H38" s="7">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I38" s="7">
         <f t="shared" si="2"/>
@@ -2397,11 +2407,11 @@
       </c>
       <c r="J38" s="7">
         <f t="shared" si="3"/>
-        <v>69.15789473684211</v>
+        <v>71.315789473684205</v>
       </c>
       <c r="K38" s="9">
         <f t="shared" si="4"/>
-        <v>0.13450292397660818</v>
+        <v>0.14912280701754385</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2417,15 +2427,15 @@
       <c r="E39" s="6"/>
       <c r="F39" s="7">
         <f t="shared" si="5"/>
-        <v>69.15789473684211</v>
+        <v>71.315789473684205</v>
       </c>
       <c r="G39" s="7">
         <f t="shared" si="6"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H39" s="7">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I39" s="7">
         <f t="shared" si="2"/>
@@ -2433,11 +2443,11 @@
       </c>
       <c r="J39" s="7">
         <f t="shared" si="3"/>
-        <v>66.736842105263165</v>
+        <v>68.631578947368411</v>
       </c>
       <c r="K39" s="9">
         <f t="shared" si="4"/>
-        <v>0.13450292397660818</v>
+        <v>0.14912280701754385</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2453,15 +2463,15 @@
       <c r="E40" s="6"/>
       <c r="F40" s="7">
         <f t="shared" si="5"/>
-        <v>66.736842105263165</v>
+        <v>68.631578947368411</v>
       </c>
       <c r="G40" s="7">
         <f t="shared" si="6"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H40" s="7">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I40" s="7">
         <f t="shared" si="2"/>
@@ -2469,11 +2479,11 @@
       </c>
       <c r="J40" s="7">
         <f t="shared" si="3"/>
-        <v>64.31578947368422</v>
+        <v>65.947368421052616</v>
       </c>
       <c r="K40" s="9">
         <f t="shared" si="4"/>
-        <v>0.13450292397660818</v>
+        <v>0.14912280701754385</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2489,15 +2499,15 @@
       <c r="E41" s="6"/>
       <c r="F41" s="7">
         <f t="shared" si="5"/>
-        <v>64.31578947368422</v>
+        <v>65.947368421052616</v>
       </c>
       <c r="G41" s="7">
         <f t="shared" si="6"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H41" s="7">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I41" s="7">
         <f t="shared" si="2"/>
@@ -2505,11 +2515,11 @@
       </c>
       <c r="J41" s="7">
         <f t="shared" si="3"/>
-        <v>61.894736842105274</v>
+        <v>63.263157894736828</v>
       </c>
       <c r="K41" s="9">
         <f t="shared" si="4"/>
-        <v>0.13450292397660818</v>
+        <v>0.14912280701754385</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2525,15 +2535,15 @@
       <c r="E42" s="6"/>
       <c r="F42" s="7">
         <f t="shared" si="5"/>
-        <v>61.894736842105274</v>
+        <v>63.263157894736828</v>
       </c>
       <c r="G42" s="7">
         <f t="shared" si="6"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H42" s="7">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I42" s="7">
         <f t="shared" si="2"/>
@@ -2541,11 +2551,11 @@
       </c>
       <c r="J42" s="7">
         <f t="shared" si="3"/>
-        <v>59.473684210526329</v>
+        <v>60.578947368421041</v>
       </c>
       <c r="K42" s="9">
         <f t="shared" si="4"/>
-        <v>0.13450292397660818</v>
+        <v>0.14912280701754385</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2561,15 +2571,15 @@
       <c r="E43" s="6"/>
       <c r="F43" s="7">
         <f t="shared" si="5"/>
-        <v>59.473684210526329</v>
+        <v>60.578947368421041</v>
       </c>
       <c r="G43" s="7">
         <f t="shared" si="6"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H43" s="7">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I43" s="7">
         <f t="shared" si="2"/>
@@ -2577,11 +2587,11 @@
       </c>
       <c r="J43" s="7">
         <f t="shared" si="3"/>
-        <v>57.052631578947384</v>
+        <v>57.894736842105253</v>
       </c>
       <c r="K43" s="9">
         <f t="shared" si="4"/>
-        <v>0.13450292397660818</v>
+        <v>0.14912280701754385</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -2597,15 +2607,15 @@
       <c r="E44" s="6"/>
       <c r="F44" s="7">
         <f t="shared" si="5"/>
-        <v>57.052631578947384</v>
+        <v>57.894736842105253</v>
       </c>
       <c r="G44" s="7">
         <f t="shared" si="6"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H44" s="7">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I44" s="7">
         <f t="shared" si="2"/>
@@ -2613,11 +2623,11 @@
       </c>
       <c r="J44" s="7">
         <f t="shared" si="3"/>
-        <v>54.631578947368439</v>
+        <v>55.210526315789465</v>
       </c>
       <c r="K44" s="9">
         <f t="shared" si="4"/>
-        <v>0.13450292397660818</v>
+        <v>0.14912280701754385</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2633,15 +2643,15 @@
       <c r="E45" s="6"/>
       <c r="F45" s="7">
         <f t="shared" si="5"/>
-        <v>54.631578947368439</v>
+        <v>55.210526315789465</v>
       </c>
       <c r="G45" s="7">
         <f t="shared" si="6"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H45" s="7">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I45" s="7">
         <f t="shared" si="2"/>
@@ -2649,11 +2659,11 @@
       </c>
       <c r="J45" s="7">
         <f t="shared" si="3"/>
-        <v>52.210526315789494</v>
+        <v>52.526315789473678</v>
       </c>
       <c r="K45" s="9">
         <f t="shared" si="4"/>
-        <v>0.13450292397660818</v>
+        <v>0.14912280701754385</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2669,15 +2679,15 @@
       <c r="E46" s="6"/>
       <c r="F46" s="7">
         <f t="shared" si="5"/>
-        <v>52.210526315789494</v>
+        <v>52.526315789473678</v>
       </c>
       <c r="G46" s="7">
         <f t="shared" si="6"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H46" s="7">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I46" s="7">
         <f t="shared" si="2"/>
@@ -2685,11 +2695,11 @@
       </c>
       <c r="J46" s="7">
         <f t="shared" si="3"/>
-        <v>49.789473684210549</v>
+        <v>49.84210526315789</v>
       </c>
       <c r="K46" s="9">
         <f t="shared" si="4"/>
-        <v>0.13450292397660818</v>
+        <v>0.14912280701754385</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -2705,15 +2715,15 @@
       <c r="E47" s="6"/>
       <c r="F47" s="7">
         <f t="shared" si="5"/>
-        <v>49.789473684210549</v>
+        <v>49.84210526315789</v>
       </c>
       <c r="G47" s="7">
         <f t="shared" si="6"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H47" s="7">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I47" s="7">
         <f t="shared" si="2"/>
@@ -2721,11 +2731,11 @@
       </c>
       <c r="J47" s="7">
         <f t="shared" si="3"/>
-        <v>47.368421052631604</v>
+        <v>47.157894736842103</v>
       </c>
       <c r="K47" s="9">
         <f t="shared" si="4"/>
-        <v>0.13450292397660818</v>
+        <v>0.14912280701754385</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2741,15 +2751,15 @@
       <c r="E48" s="6"/>
       <c r="F48" s="7">
         <f t="shared" si="5"/>
-        <v>47.368421052631604</v>
+        <v>47.157894736842103</v>
       </c>
       <c r="G48" s="7">
         <f t="shared" si="6"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H48" s="7">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I48" s="7">
         <f t="shared" si="2"/>
@@ -2757,11 +2767,11 @@
       </c>
       <c r="J48" s="7">
         <f t="shared" si="3"/>
-        <v>44.54385964912283</v>
+        <v>44.026315789473685</v>
       </c>
       <c r="K48" s="9">
         <f t="shared" si="4"/>
-        <v>0.13450292397660818</v>
+        <v>0.14912280701754385</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -2777,15 +2787,15 @@
       <c r="E49" s="6"/>
       <c r="F49" s="7">
         <f t="shared" si="5"/>
-        <v>44.54385964912283</v>
+        <v>44.026315789473685</v>
       </c>
       <c r="G49" s="7">
         <f t="shared" si="6"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H49" s="7">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I49" s="7">
         <f t="shared" si="2"/>
@@ -2793,11 +2803,11 @@
       </c>
       <c r="J49" s="7">
         <f t="shared" si="3"/>
-        <v>41.719298245614056</v>
+        <v>40.894736842105267</v>
       </c>
       <c r="K49" s="9">
         <f t="shared" si="4"/>
-        <v>0.13450292397660818</v>
+        <v>0.14912280701754385</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -2813,15 +2823,15 @@
       <c r="E50" s="6"/>
       <c r="F50" s="7">
         <f t="shared" si="5"/>
-        <v>41.719298245614056</v>
+        <v>40.894736842105267</v>
       </c>
       <c r="G50" s="7">
         <f t="shared" si="6"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H50" s="7">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I50" s="7">
         <f t="shared" si="2"/>
@@ -2829,11 +2839,11 @@
       </c>
       <c r="J50" s="7">
         <f t="shared" si="3"/>
-        <v>38.894736842105281</v>
+        <v>37.76315789473685</v>
       </c>
       <c r="K50" s="9">
         <f t="shared" si="4"/>
-        <v>0.13450292397660818</v>
+        <v>0.14912280701754385</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -2849,15 +2859,15 @@
       <c r="E51" s="6"/>
       <c r="F51" s="7">
         <f t="shared" si="5"/>
-        <v>38.894736842105281</v>
+        <v>37.76315789473685</v>
       </c>
       <c r="G51" s="7">
         <f t="shared" si="6"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H51" s="7">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I51" s="7">
         <f t="shared" si="2"/>
@@ -2865,11 +2875,11 @@
       </c>
       <c r="J51" s="7">
         <f t="shared" si="3"/>
-        <v>36.070175438596507</v>
+        <v>34.631578947368432</v>
       </c>
       <c r="K51" s="9">
         <f t="shared" si="4"/>
-        <v>0.13450292397660818</v>
+        <v>0.14912280701754385</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -2885,15 +2895,15 @@
       <c r="E52" s="6"/>
       <c r="F52" s="7">
         <f t="shared" si="5"/>
-        <v>36.070175438596507</v>
+        <v>34.631578947368432</v>
       </c>
       <c r="G52" s="7">
         <f t="shared" si="6"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H52" s="7">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I52" s="7">
         <f t="shared" si="2"/>
@@ -2901,11 +2911,11 @@
       </c>
       <c r="J52" s="7">
         <f t="shared" si="3"/>
-        <v>33.245614035087733</v>
+        <v>31.500000000000011</v>
       </c>
       <c r="K52" s="9">
         <f t="shared" si="4"/>
-        <v>0.13450292397660818</v>
+        <v>0.14912280701754385</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -2917,11 +2927,11 @@
       <c r="C53" s="11"/>
       <c r="D53" s="11">
         <f>AVERAGE(D7:D52)</f>
-        <v>1.5333333333333334</v>
+        <v>1.6451612903225807</v>
       </c>
       <c r="E53" s="11">
         <f>AVERAGE(E7:E52)</f>
-        <v>11.4</v>
+        <v>11.03225806451613</v>
       </c>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>

--- a/01_ProjectPlanning/ProductBurndown.xlsx
+++ b/01_ProjectPlanning/ProductBurndown.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Schule\SYP\Planing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Schule\SYP\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -507,52 +507,52 @@
                   <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>74</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>71.315789473684205</c:v>
+                  <c:v>24.3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>68.631578947368411</c:v>
+                  <c:v>21.6</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>65.947368421052616</c:v>
+                  <c:v>21.6</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>63.263157894736828</c:v>
+                  <c:v>18.900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>60.578947368421041</c:v>
+                  <c:v>17.400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>57.894736842105253</c:v>
+                  <c:v>15.900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>55.210526315789465</c:v>
+                  <c:v>13.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>52.526315789473678</c:v>
+                  <c:v>10.500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>49.84210526315789</c:v>
+                  <c:v>7.8000000000000043</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>47.157894736842103</c:v>
+                  <c:v>5.100000000000005</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>44.026315789473685</c:v>
+                  <c:v>1.9500000000000051</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>40.894736842105267</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>37.76315789473685</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>34.631578947368432</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>31.500000000000011</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1042,10 +1042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <f t="shared" ref="A8:A52" si="1">A7+7</f>
+        <f t="shared" ref="A8:A51" si="1">A7+7</f>
         <v>42859</v>
       </c>
       <c r="B8" s="6">
@@ -1206,15 +1206,15 @@
         <v>3</v>
       </c>
       <c r="I8" s="7">
-        <f t="shared" ref="I8:I52" si="2">I7+E7</f>
+        <f t="shared" ref="I8:I51" si="2">I7+E7</f>
         <v>9</v>
       </c>
       <c r="J8" s="7">
-        <f t="shared" ref="J8:J52" si="3">MAX(IF(OR(ISBLANK(D8),ISBLANK(E8)),F8-K7*B8,F8-D8),0)</f>
+        <f t="shared" ref="J8:J51" si="3">MAX(IF(OR(ISBLANK(D8),ISBLANK(E8)),F8-K7*B8,F8-D8),0)</f>
         <v>122</v>
       </c>
       <c r="K8" s="9">
-        <f t="shared" ref="K8:K52" si="4">IF(OR(ISBLANK(D8),ISBLANK(E8)),K7,H8/(I8+E8))</f>
+        <f t="shared" ref="K8:K51" si="4">IF(OR(ISBLANK(D8),ISBLANK(E8)),K7,H8/(I8+E8))</f>
         <v>0.15</v>
       </c>
     </row>
@@ -1234,11 +1234,11 @@
         <v>10</v>
       </c>
       <c r="F9" s="7">
-        <f t="shared" ref="F9:F52" si="5">J8+C9</f>
+        <f t="shared" ref="F9:F51" si="5">J8+C9</f>
         <v>122</v>
       </c>
       <c r="G9" s="7">
-        <f t="shared" ref="G9:G52" si="6">H8</f>
+        <f t="shared" ref="G9:G51" si="6">H8</f>
         <v>3</v>
       </c>
       <c r="H9" s="7">
@@ -2346,16 +2346,18 @@
       <c r="B37" s="6">
         <v>18</v>
       </c>
-      <c r="C37" s="6"/>
+      <c r="C37" s="6">
+        <v>-44</v>
+      </c>
       <c r="D37" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E37" s="6">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F37" s="7">
         <f t="shared" si="5"/>
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="G37" s="7">
         <f t="shared" si="6"/>
@@ -2363,7 +2365,7 @@
       </c>
       <c r="H37" s="7">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I37" s="7">
         <f t="shared" si="2"/>
@@ -2371,11 +2373,11 @@
       </c>
       <c r="J37" s="7">
         <f t="shared" si="3"/>
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="K37" s="9">
         <f t="shared" si="4"/>
-        <v>0.14912280701754385</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2391,27 +2393,27 @@
       <c r="E38" s="6"/>
       <c r="F38" s="7">
         <f t="shared" si="5"/>
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="G38" s="7">
         <f t="shared" si="6"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H38" s="7">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I38" s="7">
         <f t="shared" si="2"/>
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="J38" s="7">
         <f t="shared" si="3"/>
-        <v>71.315789473684205</v>
+        <v>24.3</v>
       </c>
       <c r="K38" s="9">
         <f t="shared" si="4"/>
-        <v>0.14912280701754385</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2427,27 +2429,27 @@
       <c r="E39" s="6"/>
       <c r="F39" s="7">
         <f t="shared" si="5"/>
-        <v>71.315789473684205</v>
+        <v>24.3</v>
       </c>
       <c r="G39" s="7">
         <f t="shared" si="6"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H39" s="7">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I39" s="7">
         <f t="shared" si="2"/>
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="J39" s="7">
         <f t="shared" si="3"/>
-        <v>68.631578947368411</v>
+        <v>21.6</v>
       </c>
       <c r="K39" s="9">
         <f t="shared" si="4"/>
-        <v>0.14912280701754385</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2456,34 +2458,34 @@
         <v>43083</v>
       </c>
       <c r="B40" s="6">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="7">
         <f t="shared" si="5"/>
-        <v>68.631578947368411</v>
+        <v>21.6</v>
       </c>
       <c r="G40" s="7">
         <f t="shared" si="6"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H40" s="7">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I40" s="7">
         <f t="shared" si="2"/>
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="J40" s="7">
         <f t="shared" si="3"/>
-        <v>65.947368421052616</v>
+        <v>21.6</v>
       </c>
       <c r="K40" s="9">
         <f t="shared" si="4"/>
-        <v>0.14912280701754385</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2499,27 +2501,27 @@
       <c r="E41" s="6"/>
       <c r="F41" s="7">
         <f t="shared" si="5"/>
-        <v>65.947368421052616</v>
+        <v>21.6</v>
       </c>
       <c r="G41" s="7">
         <f t="shared" si="6"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H41" s="7">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I41" s="7">
         <f t="shared" si="2"/>
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="J41" s="7">
         <f t="shared" si="3"/>
-        <v>63.263157894736828</v>
+        <v>18.900000000000002</v>
       </c>
       <c r="K41" s="9">
         <f t="shared" si="4"/>
-        <v>0.14912280701754385</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2528,34 +2530,34 @@
         <v>43097</v>
       </c>
       <c r="B42" s="6">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="7">
         <f t="shared" si="5"/>
-        <v>63.263157894736828</v>
+        <v>18.900000000000002</v>
       </c>
       <c r="G42" s="7">
         <f t="shared" si="6"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H42" s="7">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I42" s="7">
         <f t="shared" si="2"/>
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="J42" s="7">
         <f t="shared" si="3"/>
-        <v>60.578947368421041</v>
+        <v>17.400000000000002</v>
       </c>
       <c r="K42" s="9">
         <f t="shared" si="4"/>
-        <v>0.14912280701754385</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2564,34 +2566,34 @@
         <v>43104</v>
       </c>
       <c r="B43" s="6">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="7">
         <f t="shared" si="5"/>
-        <v>60.578947368421041</v>
+        <v>17.400000000000002</v>
       </c>
       <c r="G43" s="7">
         <f t="shared" si="6"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H43" s="7">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I43" s="7">
         <f t="shared" si="2"/>
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="J43" s="7">
         <f t="shared" si="3"/>
-        <v>57.894736842105253</v>
+        <v>15.900000000000002</v>
       </c>
       <c r="K43" s="9">
         <f t="shared" si="4"/>
-        <v>0.14912280701754385</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -2607,27 +2609,27 @@
       <c r="E44" s="6"/>
       <c r="F44" s="7">
         <f t="shared" si="5"/>
-        <v>57.894736842105253</v>
+        <v>15.900000000000002</v>
       </c>
       <c r="G44" s="7">
         <f t="shared" si="6"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H44" s="7">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I44" s="7">
         <f t="shared" si="2"/>
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="J44" s="7">
         <f t="shared" si="3"/>
-        <v>55.210526315789465</v>
+        <v>13.200000000000003</v>
       </c>
       <c r="K44" s="9">
         <f t="shared" si="4"/>
-        <v>0.14912280701754385</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2643,27 +2645,27 @@
       <c r="E45" s="6"/>
       <c r="F45" s="7">
         <f t="shared" si="5"/>
-        <v>55.210526315789465</v>
+        <v>13.200000000000003</v>
       </c>
       <c r="G45" s="7">
         <f t="shared" si="6"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H45" s="7">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I45" s="7">
         <f t="shared" si="2"/>
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="J45" s="7">
         <f t="shared" si="3"/>
-        <v>52.526315789473678</v>
+        <v>10.500000000000004</v>
       </c>
       <c r="K45" s="9">
         <f t="shared" si="4"/>
-        <v>0.14912280701754385</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2679,27 +2681,27 @@
       <c r="E46" s="6"/>
       <c r="F46" s="7">
         <f t="shared" si="5"/>
-        <v>52.526315789473678</v>
+        <v>10.500000000000004</v>
       </c>
       <c r="G46" s="7">
         <f t="shared" si="6"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H46" s="7">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I46" s="7">
         <f t="shared" si="2"/>
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="J46" s="7">
         <f t="shared" si="3"/>
-        <v>49.84210526315789</v>
+        <v>7.8000000000000043</v>
       </c>
       <c r="K46" s="9">
         <f t="shared" si="4"/>
-        <v>0.14912280701754385</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -2715,27 +2717,27 @@
       <c r="E47" s="6"/>
       <c r="F47" s="7">
         <f t="shared" si="5"/>
-        <v>49.84210526315789</v>
+        <v>7.8000000000000043</v>
       </c>
       <c r="G47" s="7">
         <f t="shared" si="6"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H47" s="7">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I47" s="7">
         <f t="shared" si="2"/>
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="J47" s="7">
         <f t="shared" si="3"/>
-        <v>47.157894736842103</v>
+        <v>5.100000000000005</v>
       </c>
       <c r="K47" s="9">
         <f t="shared" si="4"/>
-        <v>0.14912280701754385</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2751,27 +2753,27 @@
       <c r="E48" s="6"/>
       <c r="F48" s="7">
         <f t="shared" si="5"/>
-        <v>47.157894736842103</v>
+        <v>5.100000000000005</v>
       </c>
       <c r="G48" s="7">
         <f t="shared" si="6"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H48" s="7">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I48" s="7">
         <f t="shared" si="2"/>
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="J48" s="7">
         <f t="shared" si="3"/>
-        <v>44.026315789473685</v>
+        <v>1.9500000000000051</v>
       </c>
       <c r="K48" s="9">
         <f t="shared" si="4"/>
-        <v>0.14912280701754385</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -2787,27 +2789,27 @@
       <c r="E49" s="6"/>
       <c r="F49" s="7">
         <f t="shared" si="5"/>
-        <v>44.026315789473685</v>
+        <v>1.9500000000000051</v>
       </c>
       <c r="G49" s="7">
         <f t="shared" si="6"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H49" s="7">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I49" s="7">
         <f t="shared" si="2"/>
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="J49" s="7">
         <f t="shared" si="3"/>
-        <v>40.894736842105267</v>
+        <v>0</v>
       </c>
       <c r="K49" s="9">
         <f t="shared" si="4"/>
-        <v>0.14912280701754385</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -2823,27 +2825,27 @@
       <c r="E50" s="6"/>
       <c r="F50" s="7">
         <f t="shared" si="5"/>
-        <v>40.894736842105267</v>
+        <v>0</v>
       </c>
       <c r="G50" s="7">
         <f t="shared" si="6"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H50" s="7">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I50" s="7">
         <f t="shared" si="2"/>
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="J50" s="7">
         <f t="shared" si="3"/>
-        <v>37.76315789473685</v>
+        <v>0</v>
       </c>
       <c r="K50" s="9">
         <f t="shared" si="4"/>
-        <v>0.14912280701754385</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -2859,32 +2861,32 @@
       <c r="E51" s="6"/>
       <c r="F51" s="7">
         <f t="shared" si="5"/>
-        <v>37.76315789473685</v>
+        <v>0</v>
       </c>
       <c r="G51" s="7">
         <f t="shared" si="6"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H51" s="7">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I51" s="7">
         <f t="shared" si="2"/>
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="J51" s="7">
         <f t="shared" si="3"/>
-        <v>34.631578947368432</v>
+        <v>0</v>
       </c>
       <c r="K51" s="9">
         <f t="shared" si="4"/>
-        <v>0.14912280701754385</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
-        <f t="shared" si="1"/>
+        <f>A51+7</f>
         <v>43167</v>
       </c>
       <c r="B52" s="6">
@@ -2894,51 +2896,159 @@
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="7">
-        <f t="shared" si="5"/>
-        <v>34.631578947368432</v>
+        <f>J51+C52</f>
+        <v>0</v>
       </c>
       <c r="G52" s="7">
-        <f t="shared" si="6"/>
-        <v>51</v>
+        <f>H51</f>
+        <v>54</v>
       </c>
       <c r="H52" s="7">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I52" s="7">
-        <f t="shared" si="2"/>
-        <v>342</v>
+        <f>I51+E51</f>
+        <v>360</v>
       </c>
       <c r="J52" s="7">
-        <f t="shared" si="3"/>
-        <v>31.500000000000011</v>
+        <f>MAX(IF(OR(ISBLANK(D52),ISBLANK(E52)),F52-K51*B52,F52-D52),0)</f>
+        <v>0</v>
       </c>
       <c r="K52" s="9">
-        <f t="shared" si="4"/>
-        <v>0.14912280701754385</v>
+        <f>IF(OR(ISBLANK(D52),ISBLANK(E52)),K51,H52/(I52+E52))</f>
+        <v>0.15</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
-      <c r="B53" s="11">
+      <c r="A53" s="5">
+        <f t="shared" ref="A53:A55" si="7">A52+7</f>
+        <v>43174</v>
+      </c>
+      <c r="B53" s="6">
+        <v>21</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="7">
+        <f t="shared" ref="F53:F55" si="8">J52+C53</f>
+        <v>0</v>
+      </c>
+      <c r="G53" s="7">
+        <f t="shared" ref="G53:G55" si="9">H52</f>
+        <v>54</v>
+      </c>
+      <c r="H53" s="7">
+        <f t="shared" ref="H53:H55" si="10">G53+D53</f>
+        <v>54</v>
+      </c>
+      <c r="I53" s="7">
+        <f t="shared" ref="I53:I55" si="11">I52+E52</f>
+        <v>360</v>
+      </c>
+      <c r="J53" s="7">
+        <f t="shared" ref="J53:J55" si="12">MAX(IF(OR(ISBLANK(D53),ISBLANK(E53)),F53-K52*B53,F53-D53),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K53" s="9">
+        <f t="shared" ref="K53:K55" si="13">IF(OR(ISBLANK(D53),ISBLANK(E53)),K52,H53/(I53+E53))</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <f t="shared" si="7"/>
+        <v>43181</v>
+      </c>
+      <c r="B54" s="6">
+        <v>21</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="7">
+        <f t="shared" si="9"/>
+        <v>54</v>
+      </c>
+      <c r="H54" s="7">
+        <f t="shared" si="10"/>
+        <v>54</v>
+      </c>
+      <c r="I54" s="7">
+        <f t="shared" si="11"/>
+        <v>360</v>
+      </c>
+      <c r="J54" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="9">
+        <f t="shared" si="13"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <f t="shared" si="7"/>
+        <v>43188</v>
+      </c>
+      <c r="B55" s="6">
+        <v>21</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="7">
+        <f t="shared" si="9"/>
+        <v>54</v>
+      </c>
+      <c r="H55" s="7">
+        <f t="shared" si="10"/>
+        <v>54</v>
+      </c>
+      <c r="I55" s="7">
+        <f t="shared" si="11"/>
+        <v>360</v>
+      </c>
+      <c r="J55" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="9">
+        <f t="shared" si="13"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="10"/>
+      <c r="B56" s="11">
         <f>SUM(B7:B31)</f>
         <v>271</v>
       </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11">
-        <f>AVERAGE(D7:D52)</f>
-        <v>1.6451612903225807</v>
-      </c>
-      <c r="E53" s="11">
-        <f>AVERAGE(E7:E52)</f>
-        <v>11.03225806451613</v>
-      </c>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="12"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11">
+        <f>AVERAGE(D7:D55)</f>
+        <v>1.7419354838709677</v>
+      </c>
+      <c r="E56" s="11">
+        <f>AVERAGE(E7:E55)</f>
+        <v>11.612903225806452</v>
+      </c>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/01_ProjectPlanning/ProductBurndown.xlsx
+++ b/01_ProjectPlanning/ProductBurndown.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Schule\SYP\Planing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Schule\SYP\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -417,142 +417,142 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="46"/>
                 <c:pt idx="0" formatCode="0.0">
-                  <c:v>117</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>117</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>114</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>114</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>114</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>109</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>109</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>109</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>109</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>109</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>109</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>109</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>109</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>109</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>109</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>106</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>101</c:v>
-                </c:pt>
                 <c:pt idx="21">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>89</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>89</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>71.578947368421055</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>69.15789473684211</c:v>
+                  <c:v>24.3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>66.736842105263165</c:v>
+                  <c:v>21.6</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>64.31578947368422</c:v>
+                  <c:v>21.6</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>61.894736842105274</c:v>
+                  <c:v>18.900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>59.473684210526329</c:v>
+                  <c:v>17.400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>57.052631578947384</c:v>
+                  <c:v>15.900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>54.631578947368439</c:v>
+                  <c:v>13.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>52.210526315789494</c:v>
+                  <c:v>10.500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>49.789473684210549</c:v>
+                  <c:v>7.8000000000000043</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>47.368421052631604</c:v>
+                  <c:v>5.100000000000005</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>44.54385964912283</c:v>
+                  <c:v>1.9500000000000051</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>41.719298245614056</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>38.894736842105281</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>36.070175438596507</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>33.245614035087733</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -706,7 +706,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1036,10 +1042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,7 +1077,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B3" s="2">
         <v>49</v>
@@ -1150,7 +1156,7 @@
       </c>
       <c r="F7" s="7">
         <f>A3</f>
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
@@ -1165,7 +1171,7 @@
       </c>
       <c r="J7" s="8">
         <f>A3</f>
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="K7" s="9">
         <f>IF(OR(ISBLANK(D7),ISBLANK(E7)),'[1]Sheet 1 - Initial'!D7,H7/(I7+E7))</f>
@@ -1174,7 +1180,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <f t="shared" ref="A8:A52" si="1">A7+7</f>
+        <f t="shared" ref="A8:A51" si="1">A7+7</f>
         <v>42859</v>
       </c>
       <c r="B8" s="6">
@@ -1189,7 +1195,7 @@
       </c>
       <c r="F8" s="8">
         <f>J7+C8</f>
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G8" s="7">
         <f>H7</f>
@@ -1200,15 +1206,15 @@
         <v>3</v>
       </c>
       <c r="I8" s="7">
-        <f t="shared" ref="I8:I52" si="2">I7+E7</f>
+        <f t="shared" ref="I8:I51" si="2">I7+E7</f>
         <v>9</v>
       </c>
       <c r="J8" s="7">
-        <f t="shared" ref="J8:J52" si="3">MAX(IF(OR(ISBLANK(D8),ISBLANK(E8)),F8-K7*B8,F8-D8),0)</f>
-        <v>117</v>
+        <f t="shared" ref="J8:J51" si="3">MAX(IF(OR(ISBLANK(D8),ISBLANK(E8)),F8-K7*B8,F8-D8),0)</f>
+        <v>122</v>
       </c>
       <c r="K8" s="9">
-        <f t="shared" ref="K8:K52" si="4">IF(OR(ISBLANK(D8),ISBLANK(E8)),K7,H8/(I8+E8))</f>
+        <f t="shared" ref="K8:K51" si="4">IF(OR(ISBLANK(D8),ISBLANK(E8)),K7,H8/(I8+E8))</f>
         <v>0.15</v>
       </c>
     </row>
@@ -1228,11 +1234,11 @@
         <v>10</v>
       </c>
       <c r="F9" s="7">
-        <f t="shared" ref="F9:F52" si="5">J8+C9</f>
-        <v>117</v>
+        <f t="shared" ref="F9:F51" si="5">J8+C9</f>
+        <v>122</v>
       </c>
       <c r="G9" s="7">
-        <f t="shared" ref="G9:G52" si="6">H8</f>
+        <f t="shared" ref="G9:G51" si="6">H8</f>
         <v>3</v>
       </c>
       <c r="H9" s="7">
@@ -1245,7 +1251,7 @@
       </c>
       <c r="J9" s="7">
         <f t="shared" si="3"/>
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="K9" s="9">
         <f t="shared" si="4"/>
@@ -1269,7 +1275,7 @@
       </c>
       <c r="F10" s="7">
         <f t="shared" si="5"/>
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" si="6"/>
@@ -1285,7 +1291,7 @@
       </c>
       <c r="J10" s="7">
         <f t="shared" si="3"/>
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="K10" s="9">
         <f t="shared" si="4"/>
@@ -1309,7 +1315,7 @@
       </c>
       <c r="F11" s="7">
         <f t="shared" si="5"/>
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" si="6"/>
@@ -1325,7 +1331,7 @@
       </c>
       <c r="J11" s="7">
         <f t="shared" si="3"/>
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="K11" s="9">
         <f t="shared" si="4"/>
@@ -1349,23 +1355,23 @@
       </c>
       <c r="F12" s="7">
         <f t="shared" si="5"/>
+        <v>119</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="I12" s="7">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="J12" s="7">
+        <f t="shared" si="3"/>
         <v>114</v>
-      </c>
-      <c r="G12" s="7">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="H12" s="7">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="I12" s="7">
-        <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="J12" s="7">
-        <f t="shared" si="3"/>
-        <v>109</v>
       </c>
       <c r="K12" s="9">
         <f t="shared" si="4"/>
@@ -1389,7 +1395,7 @@
       </c>
       <c r="F13" s="7">
         <f t="shared" si="5"/>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G13" s="7">
         <f t="shared" si="6"/>
@@ -1405,7 +1411,7 @@
       </c>
       <c r="J13" s="7">
         <f t="shared" si="3"/>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K13" s="9">
         <f t="shared" si="4"/>
@@ -1429,7 +1435,7 @@
       </c>
       <c r="F14" s="7">
         <f t="shared" si="5"/>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="6"/>
@@ -1445,7 +1451,7 @@
       </c>
       <c r="J14" s="7">
         <f t="shared" si="3"/>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K14" s="9">
         <f t="shared" si="4"/>
@@ -1469,7 +1475,7 @@
       </c>
       <c r="F15" s="7">
         <f t="shared" si="5"/>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G15" s="7">
         <f t="shared" si="6"/>
@@ -1485,7 +1491,7 @@
       </c>
       <c r="J15" s="7">
         <f t="shared" si="3"/>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K15" s="9">
         <f t="shared" si="4"/>
@@ -1509,7 +1515,7 @@
       </c>
       <c r="F16" s="7">
         <f t="shared" si="5"/>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G16" s="7">
         <f t="shared" si="6"/>
@@ -1525,7 +1531,7 @@
       </c>
       <c r="J16" s="7">
         <f t="shared" si="3"/>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K16" s="9">
         <f t="shared" si="4"/>
@@ -1549,7 +1555,7 @@
       </c>
       <c r="F17" s="7">
         <f t="shared" si="5"/>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="6"/>
@@ -1565,7 +1571,7 @@
       </c>
       <c r="J17" s="7">
         <f t="shared" si="3"/>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K17" s="9">
         <f t="shared" si="4"/>
@@ -1589,7 +1595,7 @@
       </c>
       <c r="F18" s="7">
         <f t="shared" si="5"/>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G18" s="7">
         <f t="shared" si="6"/>
@@ -1605,7 +1611,7 @@
       </c>
       <c r="J18" s="7">
         <f t="shared" si="3"/>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K18" s="9">
         <f t="shared" si="4"/>
@@ -1629,7 +1635,7 @@
       </c>
       <c r="F19" s="7">
         <f t="shared" si="5"/>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="6"/>
@@ -1645,7 +1651,7 @@
       </c>
       <c r="J19" s="7">
         <f t="shared" si="3"/>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K19" s="9">
         <f t="shared" si="4"/>
@@ -1669,7 +1675,7 @@
       </c>
       <c r="F20" s="7">
         <f t="shared" si="5"/>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" si="6"/>
@@ -1685,7 +1691,7 @@
       </c>
       <c r="J20" s="7">
         <f t="shared" si="3"/>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K20" s="9">
         <f t="shared" si="4"/>
@@ -1709,7 +1715,7 @@
       </c>
       <c r="F21" s="7">
         <f t="shared" si="5"/>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G21" s="7">
         <f t="shared" si="6"/>
@@ -1725,7 +1731,7 @@
       </c>
       <c r="J21" s="7">
         <f t="shared" si="3"/>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K21" s="9">
         <f t="shared" si="4"/>
@@ -1749,7 +1755,7 @@
       </c>
       <c r="F22" s="7">
         <f t="shared" si="5"/>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G22" s="7">
         <f t="shared" si="6"/>
@@ -1765,7 +1771,7 @@
       </c>
       <c r="J22" s="7">
         <f t="shared" si="3"/>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K22" s="9">
         <f t="shared" si="4"/>
@@ -1789,7 +1795,7 @@
       </c>
       <c r="F23" s="7">
         <f t="shared" si="5"/>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G23" s="7">
         <f t="shared" si="6"/>
@@ -1805,7 +1811,7 @@
       </c>
       <c r="J23" s="7">
         <f t="shared" si="3"/>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K23" s="9">
         <f t="shared" si="4"/>
@@ -1829,7 +1835,7 @@
       </c>
       <c r="F24" s="7">
         <f t="shared" si="5"/>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G24" s="7">
         <f t="shared" si="6"/>
@@ -1845,7 +1851,7 @@
       </c>
       <c r="J24" s="7">
         <f t="shared" si="3"/>
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="K24" s="9">
         <f t="shared" si="4"/>
@@ -1869,7 +1875,7 @@
       </c>
       <c r="F25" s="7">
         <f t="shared" si="5"/>
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G25" s="7">
         <f t="shared" si="6"/>
@@ -1885,7 +1891,7 @@
       </c>
       <c r="J25" s="7">
         <f t="shared" si="3"/>
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="K25" s="9">
         <f t="shared" si="4"/>
@@ -1909,7 +1915,7 @@
       </c>
       <c r="F26" s="7">
         <f t="shared" si="5"/>
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G26" s="7">
         <f t="shared" si="6"/>
@@ -1925,7 +1931,7 @@
       </c>
       <c r="J26" s="7">
         <f t="shared" si="3"/>
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="K26" s="9">
         <f t="shared" si="4"/>
@@ -1949,23 +1955,23 @@
       </c>
       <c r="F27" s="7">
         <f t="shared" si="5"/>
+        <v>111</v>
+      </c>
+      <c r="G27" s="7">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="H27" s="7">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="I27" s="7">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="J27" s="7">
+        <f t="shared" si="3"/>
         <v>106</v>
-      </c>
-      <c r="G27" s="7">
-        <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="H27" s="7">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="I27" s="7">
-        <f t="shared" si="2"/>
-        <v>160</v>
-      </c>
-      <c r="J27" s="7">
-        <f t="shared" si="3"/>
-        <v>101</v>
       </c>
       <c r="K27" s="9">
         <f t="shared" si="4"/>
@@ -1989,7 +1995,7 @@
       </c>
       <c r="F28" s="7">
         <f t="shared" si="5"/>
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G28" s="7">
         <f t="shared" si="6"/>
@@ -2005,7 +2011,7 @@
       </c>
       <c r="J28" s="7">
         <f t="shared" si="3"/>
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K28" s="9">
         <f t="shared" si="4"/>
@@ -2029,7 +2035,7 @@
       </c>
       <c r="F29" s="7">
         <f t="shared" si="5"/>
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G29" s="7">
         <f t="shared" si="6"/>
@@ -2045,7 +2051,7 @@
       </c>
       <c r="J29" s="7">
         <f t="shared" si="3"/>
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K29" s="9">
         <f t="shared" si="4"/>
@@ -2069,23 +2075,23 @@
       </c>
       <c r="F30" s="7">
         <f t="shared" si="5"/>
+        <v>94</v>
+      </c>
+      <c r="G30" s="7">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="H30" s="7">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="I30" s="7">
+        <f t="shared" si="2"/>
+        <v>216</v>
+      </c>
+      <c r="J30" s="7">
+        <f t="shared" si="3"/>
         <v>89</v>
-      </c>
-      <c r="G30" s="7">
-        <f t="shared" si="6"/>
-        <v>31</v>
-      </c>
-      <c r="H30" s="7">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="I30" s="7">
-        <f t="shared" si="2"/>
-        <v>216</v>
-      </c>
-      <c r="J30" s="7">
-        <f t="shared" si="3"/>
-        <v>84</v>
       </c>
       <c r="K30" s="9">
         <f t="shared" si="4"/>
@@ -2109,7 +2115,7 @@
       </c>
       <c r="F31" s="7">
         <f t="shared" si="5"/>
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G31" s="7">
         <f t="shared" si="6"/>
@@ -2125,7 +2131,7 @@
       </c>
       <c r="J31" s="7">
         <f t="shared" si="3"/>
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K31" s="9">
         <f t="shared" si="4"/>
@@ -2149,7 +2155,7 @@
       </c>
       <c r="F32" s="7">
         <f t="shared" si="5"/>
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G32" s="7">
         <f t="shared" si="6"/>
@@ -2165,7 +2171,7 @@
       </c>
       <c r="J32" s="7">
         <f t="shared" si="3"/>
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K32" s="9">
         <f t="shared" si="4"/>
@@ -2189,7 +2195,7 @@
       </c>
       <c r="F33" s="7">
         <f t="shared" si="5"/>
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G33" s="7">
         <f t="shared" si="6"/>
@@ -2205,7 +2211,7 @@
       </c>
       <c r="J33" s="7">
         <f t="shared" si="3"/>
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K33" s="9">
         <f t="shared" si="4"/>
@@ -2229,7 +2235,7 @@
       </c>
       <c r="F34" s="7">
         <f t="shared" si="5"/>
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G34" s="7">
         <f t="shared" si="6"/>
@@ -2245,7 +2251,7 @@
       </c>
       <c r="J34" s="7">
         <f t="shared" si="3"/>
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K34" s="9">
         <f t="shared" si="4"/>
@@ -2269,23 +2275,23 @@
       </c>
       <c r="F35" s="7">
         <f t="shared" si="5"/>
+        <v>89</v>
+      </c>
+      <c r="G35" s="7">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="H35" s="7">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="I35" s="7">
+        <f t="shared" si="2"/>
+        <v>306</v>
+      </c>
+      <c r="J35" s="7">
+        <f t="shared" si="3"/>
         <v>84</v>
-      </c>
-      <c r="G35" s="7">
-        <f t="shared" si="6"/>
-        <v>36</v>
-      </c>
-      <c r="H35" s="7">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="I35" s="7">
-        <f t="shared" si="2"/>
-        <v>306</v>
-      </c>
-      <c r="J35" s="7">
-        <f t="shared" si="3"/>
-        <v>79</v>
       </c>
       <c r="K35" s="9">
         <f t="shared" si="4"/>
@@ -2302,14 +2308,14 @@
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E36" s="6">
         <v>18</v>
       </c>
       <c r="F36" s="7">
         <f t="shared" si="5"/>
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G36" s="7">
         <f t="shared" si="6"/>
@@ -2317,7 +2323,7 @@
       </c>
       <c r="H36" s="7">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I36" s="7">
         <f t="shared" si="2"/>
@@ -2329,7 +2335,7 @@
       </c>
       <c r="K36" s="9">
         <f t="shared" si="4"/>
-        <v>0.13450292397660818</v>
+        <v>0.14912280701754385</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2340,20 +2346,26 @@
       <c r="B37" s="6">
         <v>18</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
+      <c r="C37" s="6">
+        <v>-44</v>
+      </c>
+      <c r="D37" s="6">
+        <v>3</v>
+      </c>
+      <c r="E37" s="6">
+        <v>18</v>
+      </c>
       <c r="F37" s="7">
         <f t="shared" si="5"/>
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="G37" s="7">
         <f t="shared" si="6"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H37" s="7">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I37" s="7">
         <f t="shared" si="2"/>
@@ -2361,11 +2373,11 @@
       </c>
       <c r="J37" s="7">
         <f t="shared" si="3"/>
-        <v>71.578947368421055</v>
+        <v>27</v>
       </c>
       <c r="K37" s="9">
         <f t="shared" si="4"/>
-        <v>0.13450292397660818</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2381,27 +2393,27 @@
       <c r="E38" s="6"/>
       <c r="F38" s="7">
         <f t="shared" si="5"/>
-        <v>71.578947368421055</v>
+        <v>27</v>
       </c>
       <c r="G38" s="7">
         <f t="shared" si="6"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H38" s="7">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I38" s="7">
         <f t="shared" si="2"/>
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="J38" s="7">
         <f t="shared" si="3"/>
-        <v>69.15789473684211</v>
+        <v>24.3</v>
       </c>
       <c r="K38" s="9">
         <f t="shared" si="4"/>
-        <v>0.13450292397660818</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2417,27 +2429,27 @@
       <c r="E39" s="6"/>
       <c r="F39" s="7">
         <f t="shared" si="5"/>
-        <v>69.15789473684211</v>
+        <v>24.3</v>
       </c>
       <c r="G39" s="7">
         <f t="shared" si="6"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H39" s="7">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I39" s="7">
         <f t="shared" si="2"/>
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="J39" s="7">
         <f t="shared" si="3"/>
-        <v>66.736842105263165</v>
+        <v>21.6</v>
       </c>
       <c r="K39" s="9">
         <f t="shared" si="4"/>
-        <v>0.13450292397660818</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2446,34 +2458,34 @@
         <v>43083</v>
       </c>
       <c r="B40" s="6">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="7">
         <f t="shared" si="5"/>
-        <v>66.736842105263165</v>
+        <v>21.6</v>
       </c>
       <c r="G40" s="7">
         <f t="shared" si="6"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H40" s="7">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I40" s="7">
         <f t="shared" si="2"/>
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="J40" s="7">
         <f t="shared" si="3"/>
-        <v>64.31578947368422</v>
+        <v>21.6</v>
       </c>
       <c r="K40" s="9">
         <f t="shared" si="4"/>
-        <v>0.13450292397660818</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2489,27 +2501,27 @@
       <c r="E41" s="6"/>
       <c r="F41" s="7">
         <f t="shared" si="5"/>
-        <v>64.31578947368422</v>
+        <v>21.6</v>
       </c>
       <c r="G41" s="7">
         <f t="shared" si="6"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H41" s="7">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I41" s="7">
         <f t="shared" si="2"/>
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="J41" s="7">
         <f t="shared" si="3"/>
-        <v>61.894736842105274</v>
+        <v>18.900000000000002</v>
       </c>
       <c r="K41" s="9">
         <f t="shared" si="4"/>
-        <v>0.13450292397660818</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2518,34 +2530,34 @@
         <v>43097</v>
       </c>
       <c r="B42" s="6">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="7">
         <f t="shared" si="5"/>
-        <v>61.894736842105274</v>
+        <v>18.900000000000002</v>
       </c>
       <c r="G42" s="7">
         <f t="shared" si="6"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H42" s="7">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I42" s="7">
         <f t="shared" si="2"/>
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="J42" s="7">
         <f t="shared" si="3"/>
-        <v>59.473684210526329</v>
+        <v>17.400000000000002</v>
       </c>
       <c r="K42" s="9">
         <f t="shared" si="4"/>
-        <v>0.13450292397660818</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2554,34 +2566,34 @@
         <v>43104</v>
       </c>
       <c r="B43" s="6">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="7">
         <f t="shared" si="5"/>
-        <v>59.473684210526329</v>
+        <v>17.400000000000002</v>
       </c>
       <c r="G43" s="7">
         <f t="shared" si="6"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H43" s="7">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I43" s="7">
         <f t="shared" si="2"/>
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="J43" s="7">
         <f t="shared" si="3"/>
-        <v>57.052631578947384</v>
+        <v>15.900000000000002</v>
       </c>
       <c r="K43" s="9">
         <f t="shared" si="4"/>
-        <v>0.13450292397660818</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -2597,27 +2609,27 @@
       <c r="E44" s="6"/>
       <c r="F44" s="7">
         <f t="shared" si="5"/>
-        <v>57.052631578947384</v>
+        <v>15.900000000000002</v>
       </c>
       <c r="G44" s="7">
         <f t="shared" si="6"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H44" s="7">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I44" s="7">
         <f t="shared" si="2"/>
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="J44" s="7">
         <f t="shared" si="3"/>
-        <v>54.631578947368439</v>
+        <v>13.200000000000003</v>
       </c>
       <c r="K44" s="9">
         <f t="shared" si="4"/>
-        <v>0.13450292397660818</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2633,27 +2645,27 @@
       <c r="E45" s="6"/>
       <c r="F45" s="7">
         <f t="shared" si="5"/>
-        <v>54.631578947368439</v>
+        <v>13.200000000000003</v>
       </c>
       <c r="G45" s="7">
         <f t="shared" si="6"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H45" s="7">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I45" s="7">
         <f t="shared" si="2"/>
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="J45" s="7">
         <f t="shared" si="3"/>
-        <v>52.210526315789494</v>
+        <v>10.500000000000004</v>
       </c>
       <c r="K45" s="9">
         <f t="shared" si="4"/>
-        <v>0.13450292397660818</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2669,27 +2681,27 @@
       <c r="E46" s="6"/>
       <c r="F46" s="7">
         <f t="shared" si="5"/>
-        <v>52.210526315789494</v>
+        <v>10.500000000000004</v>
       </c>
       <c r="G46" s="7">
         <f t="shared" si="6"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H46" s="7">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I46" s="7">
         <f t="shared" si="2"/>
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="J46" s="7">
         <f t="shared" si="3"/>
-        <v>49.789473684210549</v>
+        <v>7.8000000000000043</v>
       </c>
       <c r="K46" s="9">
         <f t="shared" si="4"/>
-        <v>0.13450292397660818</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -2705,27 +2717,27 @@
       <c r="E47" s="6"/>
       <c r="F47" s="7">
         <f t="shared" si="5"/>
-        <v>49.789473684210549</v>
+        <v>7.8000000000000043</v>
       </c>
       <c r="G47" s="7">
         <f t="shared" si="6"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H47" s="7">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I47" s="7">
         <f t="shared" si="2"/>
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="J47" s="7">
         <f t="shared" si="3"/>
-        <v>47.368421052631604</v>
+        <v>5.100000000000005</v>
       </c>
       <c r="K47" s="9">
         <f t="shared" si="4"/>
-        <v>0.13450292397660818</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2741,27 +2753,27 @@
       <c r="E48" s="6"/>
       <c r="F48" s="7">
         <f t="shared" si="5"/>
-        <v>47.368421052631604</v>
+        <v>5.100000000000005</v>
       </c>
       <c r="G48" s="7">
         <f t="shared" si="6"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H48" s="7">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I48" s="7">
         <f t="shared" si="2"/>
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="J48" s="7">
         <f t="shared" si="3"/>
-        <v>44.54385964912283</v>
+        <v>1.9500000000000051</v>
       </c>
       <c r="K48" s="9">
         <f t="shared" si="4"/>
-        <v>0.13450292397660818</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -2777,27 +2789,27 @@
       <c r="E49" s="6"/>
       <c r="F49" s="7">
         <f t="shared" si="5"/>
-        <v>44.54385964912283</v>
+        <v>1.9500000000000051</v>
       </c>
       <c r="G49" s="7">
         <f t="shared" si="6"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H49" s="7">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I49" s="7">
         <f t="shared" si="2"/>
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="J49" s="7">
         <f t="shared" si="3"/>
-        <v>41.719298245614056</v>
+        <v>0</v>
       </c>
       <c r="K49" s="9">
         <f t="shared" si="4"/>
-        <v>0.13450292397660818</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -2813,27 +2825,27 @@
       <c r="E50" s="6"/>
       <c r="F50" s="7">
         <f t="shared" si="5"/>
-        <v>41.719298245614056</v>
+        <v>0</v>
       </c>
       <c r="G50" s="7">
         <f t="shared" si="6"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H50" s="7">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I50" s="7">
         <f t="shared" si="2"/>
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="J50" s="7">
         <f t="shared" si="3"/>
-        <v>38.894736842105281</v>
+        <v>0</v>
       </c>
       <c r="K50" s="9">
         <f t="shared" si="4"/>
-        <v>0.13450292397660818</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -2849,32 +2861,32 @@
       <c r="E51" s="6"/>
       <c r="F51" s="7">
         <f t="shared" si="5"/>
-        <v>38.894736842105281</v>
+        <v>0</v>
       </c>
       <c r="G51" s="7">
         <f t="shared" si="6"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H51" s="7">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I51" s="7">
         <f t="shared" si="2"/>
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="J51" s="7">
         <f t="shared" si="3"/>
-        <v>36.070175438596507</v>
+        <v>0</v>
       </c>
       <c r="K51" s="9">
         <f t="shared" si="4"/>
-        <v>0.13450292397660818</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
-        <f t="shared" si="1"/>
+        <f>A51+7</f>
         <v>43167</v>
       </c>
       <c r="B52" s="6">
@@ -2884,51 +2896,159 @@
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="7">
-        <f t="shared" si="5"/>
-        <v>36.070175438596507</v>
+        <f>J51+C52</f>
+        <v>0</v>
       </c>
       <c r="G52" s="7">
-        <f t="shared" si="6"/>
-        <v>46</v>
+        <f>H51</f>
+        <v>54</v>
       </c>
       <c r="H52" s="7">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I52" s="7">
-        <f t="shared" si="2"/>
-        <v>342</v>
+        <f>I51+E51</f>
+        <v>360</v>
       </c>
       <c r="J52" s="7">
-        <f t="shared" si="3"/>
-        <v>33.245614035087733</v>
+        <f>MAX(IF(OR(ISBLANK(D52),ISBLANK(E52)),F52-K51*B52,F52-D52),0)</f>
+        <v>0</v>
       </c>
       <c r="K52" s="9">
-        <f t="shared" si="4"/>
-        <v>0.13450292397660818</v>
+        <f>IF(OR(ISBLANK(D52),ISBLANK(E52)),K51,H52/(I52+E52))</f>
+        <v>0.15</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
-      <c r="B53" s="11">
+      <c r="A53" s="5">
+        <f t="shared" ref="A53:A55" si="7">A52+7</f>
+        <v>43174</v>
+      </c>
+      <c r="B53" s="6">
+        <v>21</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="7">
+        <f t="shared" ref="F53:F55" si="8">J52+C53</f>
+        <v>0</v>
+      </c>
+      <c r="G53" s="7">
+        <f t="shared" ref="G53:G55" si="9">H52</f>
+        <v>54</v>
+      </c>
+      <c r="H53" s="7">
+        <f t="shared" ref="H53:H55" si="10">G53+D53</f>
+        <v>54</v>
+      </c>
+      <c r="I53" s="7">
+        <f t="shared" ref="I53:I55" si="11">I52+E52</f>
+        <v>360</v>
+      </c>
+      <c r="J53" s="7">
+        <f t="shared" ref="J53:J55" si="12">MAX(IF(OR(ISBLANK(D53),ISBLANK(E53)),F53-K52*B53,F53-D53),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K53" s="9">
+        <f t="shared" ref="K53:K55" si="13">IF(OR(ISBLANK(D53),ISBLANK(E53)),K52,H53/(I53+E53))</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <f t="shared" si="7"/>
+        <v>43181</v>
+      </c>
+      <c r="B54" s="6">
+        <v>21</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="7">
+        <f t="shared" si="9"/>
+        <v>54</v>
+      </c>
+      <c r="H54" s="7">
+        <f t="shared" si="10"/>
+        <v>54</v>
+      </c>
+      <c r="I54" s="7">
+        <f t="shared" si="11"/>
+        <v>360</v>
+      </c>
+      <c r="J54" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="9">
+        <f t="shared" si="13"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <f t="shared" si="7"/>
+        <v>43188</v>
+      </c>
+      <c r="B55" s="6">
+        <v>21</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="7">
+        <f t="shared" si="9"/>
+        <v>54</v>
+      </c>
+      <c r="H55" s="7">
+        <f t="shared" si="10"/>
+        <v>54</v>
+      </c>
+      <c r="I55" s="7">
+        <f t="shared" si="11"/>
+        <v>360</v>
+      </c>
+      <c r="J55" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="9">
+        <f t="shared" si="13"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="10"/>
+      <c r="B56" s="11">
         <f>SUM(B7:B31)</f>
         <v>271</v>
       </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11">
-        <f>AVERAGE(D7:D52)</f>
-        <v>1.5333333333333334</v>
-      </c>
-      <c r="E53" s="11">
-        <f>AVERAGE(E7:E52)</f>
-        <v>11.4</v>
-      </c>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="12"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11">
+        <f>AVERAGE(D7:D55)</f>
+        <v>1.7419354838709677</v>
+      </c>
+      <c r="E56" s="11">
+        <f>AVERAGE(E7:E55)</f>
+        <v>11.612903225806452</v>
+      </c>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/01_ProjectPlanning/ProductBurndown.xlsx
+++ b/01_ProjectPlanning/ProductBurndown.xlsx
@@ -1045,7 +1045,7 @@
   <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2390,7 +2390,9 @@
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
+      <c r="E38" s="6">
+        <v>18</v>
+      </c>
       <c r="F38" s="7">
         <f t="shared" si="5"/>
         <v>27</v>
@@ -2426,7 +2428,9 @@
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
+      <c r="E39" s="6">
+        <v>18</v>
+      </c>
       <c r="F39" s="7">
         <f t="shared" si="5"/>
         <v>24.3</v>
@@ -2441,7 +2445,7 @@
       </c>
       <c r="I39" s="7">
         <f t="shared" si="2"/>
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="J39" s="7">
         <f t="shared" si="3"/>
@@ -2462,7 +2466,9 @@
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
+      <c r="E40" s="6">
+        <v>0</v>
+      </c>
       <c r="F40" s="7">
         <f t="shared" si="5"/>
         <v>21.6</v>
@@ -2477,7 +2483,7 @@
       </c>
       <c r="I40" s="7">
         <f t="shared" si="2"/>
-        <v>360</v>
+        <v>396</v>
       </c>
       <c r="J40" s="7">
         <f t="shared" si="3"/>
@@ -2498,7 +2504,9 @@
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
+      <c r="E41" s="6">
+        <v>12</v>
+      </c>
       <c r="F41" s="7">
         <f t="shared" si="5"/>
         <v>21.6</v>
@@ -2513,7 +2521,7 @@
       </c>
       <c r="I41" s="7">
         <f t="shared" si="2"/>
-        <v>360</v>
+        <v>396</v>
       </c>
       <c r="J41" s="7">
         <f t="shared" si="3"/>
@@ -2534,7 +2542,9 @@
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
+      <c r="E42" s="6">
+        <v>0</v>
+      </c>
       <c r="F42" s="7">
         <f t="shared" si="5"/>
         <v>18.900000000000002</v>
@@ -2549,7 +2559,7 @@
       </c>
       <c r="I42" s="7">
         <f t="shared" si="2"/>
-        <v>360</v>
+        <v>408</v>
       </c>
       <c r="J42" s="7">
         <f t="shared" si="3"/>
@@ -2570,7 +2580,9 @@
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
+      <c r="E43" s="6">
+        <v>0</v>
+      </c>
       <c r="F43" s="7">
         <f t="shared" si="5"/>
         <v>17.400000000000002</v>
@@ -2585,7 +2597,7 @@
       </c>
       <c r="I43" s="7">
         <f t="shared" si="2"/>
-        <v>360</v>
+        <v>408</v>
       </c>
       <c r="J43" s="7">
         <f t="shared" si="3"/>
@@ -2606,7 +2618,9 @@
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
+      <c r="E44" s="6">
+        <v>12</v>
+      </c>
       <c r="F44" s="7">
         <f t="shared" si="5"/>
         <v>15.900000000000002</v>
@@ -2621,7 +2635,7 @@
       </c>
       <c r="I44" s="7">
         <f t="shared" si="2"/>
-        <v>360</v>
+        <v>408</v>
       </c>
       <c r="J44" s="7">
         <f t="shared" si="3"/>
@@ -2642,7 +2656,9 @@
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
+      <c r="E45" s="6">
+        <v>18</v>
+      </c>
       <c r="F45" s="7">
         <f t="shared" si="5"/>
         <v>13.200000000000003</v>
@@ -2657,7 +2673,7 @@
       </c>
       <c r="I45" s="7">
         <f t="shared" si="2"/>
-        <v>360</v>
+        <v>420</v>
       </c>
       <c r="J45" s="7">
         <f t="shared" si="3"/>
@@ -2693,7 +2709,7 @@
       </c>
       <c r="I46" s="7">
         <f t="shared" si="2"/>
-        <v>360</v>
+        <v>438</v>
       </c>
       <c r="J46" s="7">
         <f t="shared" si="3"/>
@@ -2729,7 +2745,7 @@
       </c>
       <c r="I47" s="7">
         <f t="shared" si="2"/>
-        <v>360</v>
+        <v>438</v>
       </c>
       <c r="J47" s="7">
         <f t="shared" si="3"/>
@@ -2765,7 +2781,7 @@
       </c>
       <c r="I48" s="7">
         <f t="shared" si="2"/>
-        <v>360</v>
+        <v>438</v>
       </c>
       <c r="J48" s="7">
         <f t="shared" si="3"/>
@@ -2801,7 +2817,7 @@
       </c>
       <c r="I49" s="7">
         <f t="shared" si="2"/>
-        <v>360</v>
+        <v>438</v>
       </c>
       <c r="J49" s="7">
         <f t="shared" si="3"/>
@@ -2837,7 +2853,7 @@
       </c>
       <c r="I50" s="7">
         <f t="shared" si="2"/>
-        <v>360</v>
+        <v>438</v>
       </c>
       <c r="J50" s="7">
         <f t="shared" si="3"/>
@@ -2873,7 +2889,7 @@
       </c>
       <c r="I51" s="7">
         <f t="shared" si="2"/>
-        <v>360</v>
+        <v>438</v>
       </c>
       <c r="J51" s="7">
         <f t="shared" si="3"/>
@@ -2909,7 +2925,7 @@
       </c>
       <c r="I52" s="7">
         <f>I51+E51</f>
-        <v>360</v>
+        <v>438</v>
       </c>
       <c r="J52" s="7">
         <f>MAX(IF(OR(ISBLANK(D52),ISBLANK(E52)),F52-K51*B52,F52-D52),0)</f>
@@ -2945,7 +2961,7 @@
       </c>
       <c r="I53" s="7">
         <f t="shared" ref="I53:I55" si="11">I52+E52</f>
-        <v>360</v>
+        <v>438</v>
       </c>
       <c r="J53" s="7">
         <f t="shared" ref="J53:J55" si="12">MAX(IF(OR(ISBLANK(D53),ISBLANK(E53)),F53-K52*B53,F53-D53),0)</f>
@@ -2981,7 +2997,7 @@
       </c>
       <c r="I54" s="7">
         <f t="shared" si="11"/>
-        <v>360</v>
+        <v>438</v>
       </c>
       <c r="J54" s="7">
         <f t="shared" si="12"/>
@@ -3017,7 +3033,7 @@
       </c>
       <c r="I55" s="7">
         <f t="shared" si="11"/>
-        <v>360</v>
+        <v>438</v>
       </c>
       <c r="J55" s="7">
         <f t="shared" si="12"/>
@@ -3041,7 +3057,7 @@
       </c>
       <c r="E56" s="11">
         <f>AVERAGE(E7:E55)</f>
-        <v>11.612903225806452</v>
+        <v>11.23076923076923</v>
       </c>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>

--- a/01_ProjectPlanning/ProductBurndown.xlsx
+++ b/01_ProjectPlanning/ProductBurndown.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Schule\SYP\Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Dropbox\Schule\SYP\Release2301\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1045,7 +1045,7 @@
   <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2694,7 +2694,9 @@
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
+      <c r="E46" s="6">
+        <v>18</v>
+      </c>
       <c r="F46" s="7">
         <f t="shared" si="5"/>
         <v>10.500000000000004</v>
@@ -2745,7 +2747,7 @@
       </c>
       <c r="I47" s="7">
         <f t="shared" si="2"/>
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="J47" s="7">
         <f t="shared" si="3"/>
@@ -2781,7 +2783,7 @@
       </c>
       <c r="I48" s="7">
         <f t="shared" si="2"/>
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="J48" s="7">
         <f t="shared" si="3"/>
@@ -2817,7 +2819,7 @@
       </c>
       <c r="I49" s="7">
         <f t="shared" si="2"/>
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="J49" s="7">
         <f t="shared" si="3"/>
@@ -2853,7 +2855,7 @@
       </c>
       <c r="I50" s="7">
         <f t="shared" si="2"/>
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="J50" s="7">
         <f t="shared" si="3"/>
@@ -2889,7 +2891,7 @@
       </c>
       <c r="I51" s="7">
         <f t="shared" si="2"/>
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="J51" s="7">
         <f t="shared" si="3"/>
@@ -2925,7 +2927,7 @@
       </c>
       <c r="I52" s="7">
         <f>I51+E51</f>
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="J52" s="7">
         <f>MAX(IF(OR(ISBLANK(D52),ISBLANK(E52)),F52-K51*B52,F52-D52),0)</f>
@@ -2961,7 +2963,7 @@
       </c>
       <c r="I53" s="7">
         <f t="shared" ref="I53:I55" si="11">I52+E52</f>
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="J53" s="7">
         <f t="shared" ref="J53:J55" si="12">MAX(IF(OR(ISBLANK(D53),ISBLANK(E53)),F53-K52*B53,F53-D53),0)</f>
@@ -2997,7 +2999,7 @@
       </c>
       <c r="I54" s="7">
         <f t="shared" si="11"/>
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="J54" s="7">
         <f t="shared" si="12"/>
@@ -3033,7 +3035,7 @@
       </c>
       <c r="I55" s="7">
         <f t="shared" si="11"/>
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="J55" s="7">
         <f t="shared" si="12"/>
@@ -3057,7 +3059,7 @@
       </c>
       <c r="E56" s="11">
         <f>AVERAGE(E7:E55)</f>
-        <v>11.23076923076923</v>
+        <v>11.4</v>
       </c>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>

--- a/01_ProjectPlanning/ProductBurndown.xlsx
+++ b/01_ProjectPlanning/ProductBurndown.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Schule\SYP\Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Dropbox\Schule\SYP\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -510,49 +510,49 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>24.3</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>21.6</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>21.6</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>18.900000000000002</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>17.400000000000002</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>15.900000000000002</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>13.200000000000003</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>10.500000000000004</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7.8000000000000043</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.100000000000005</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.9500000000000051</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1042,10 +1042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2389,8 +2389,12 @@
         <v>18</v>
       </c>
       <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
+      <c r="D38" s="6">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6">
+        <v>18</v>
+      </c>
       <c r="F38" s="7">
         <f t="shared" si="5"/>
         <v>27</v>
@@ -2409,11 +2413,11 @@
       </c>
       <c r="J38" s="7">
         <f t="shared" si="3"/>
-        <v>24.3</v>
+        <v>27</v>
       </c>
       <c r="K38" s="9">
         <f t="shared" si="4"/>
-        <v>0.15</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2425,11 +2429,15 @@
         <v>18</v>
       </c>
       <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
+      <c r="D39" s="6">
+        <v>0</v>
+      </c>
+      <c r="E39" s="6">
+        <v>18</v>
+      </c>
       <c r="F39" s="7">
         <f t="shared" si="5"/>
-        <v>24.3</v>
+        <v>27</v>
       </c>
       <c r="G39" s="7">
         <f t="shared" si="6"/>
@@ -2441,15 +2449,15 @@
       </c>
       <c r="I39" s="7">
         <f t="shared" si="2"/>
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="J39" s="7">
         <f t="shared" si="3"/>
-        <v>21.6</v>
+        <v>27</v>
       </c>
       <c r="K39" s="9">
         <f t="shared" si="4"/>
-        <v>0.15</v>
+        <v>0.13636363636363635</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2461,11 +2469,15 @@
         <v>0</v>
       </c>
       <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
+      <c r="D40" s="6">
+        <v>0</v>
+      </c>
+      <c r="E40" s="6">
+        <v>0</v>
+      </c>
       <c r="F40" s="7">
         <f t="shared" si="5"/>
-        <v>21.6</v>
+        <v>27</v>
       </c>
       <c r="G40" s="7">
         <f t="shared" si="6"/>
@@ -2477,15 +2489,15 @@
       </c>
       <c r="I40" s="7">
         <f t="shared" si="2"/>
-        <v>360</v>
+        <v>396</v>
       </c>
       <c r="J40" s="7">
         <f t="shared" si="3"/>
-        <v>21.6</v>
+        <v>27</v>
       </c>
       <c r="K40" s="9">
         <f t="shared" si="4"/>
-        <v>0.15</v>
+        <v>0.13636363636363635</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2497,11 +2509,15 @@
         <v>18</v>
       </c>
       <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
+      <c r="D41" s="6">
+        <v>0</v>
+      </c>
+      <c r="E41" s="6">
+        <v>12</v>
+      </c>
       <c r="F41" s="7">
         <f t="shared" si="5"/>
-        <v>21.6</v>
+        <v>27</v>
       </c>
       <c r="G41" s="7">
         <f t="shared" si="6"/>
@@ -2513,15 +2529,15 @@
       </c>
       <c r="I41" s="7">
         <f t="shared" si="2"/>
-        <v>360</v>
+        <v>396</v>
       </c>
       <c r="J41" s="7">
         <f t="shared" si="3"/>
-        <v>18.900000000000002</v>
+        <v>27</v>
       </c>
       <c r="K41" s="9">
         <f t="shared" si="4"/>
-        <v>0.15</v>
+        <v>0.13235294117647059</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2533,11 +2549,15 @@
         <v>10</v>
       </c>
       <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
+      <c r="D42" s="6">
+        <v>0</v>
+      </c>
+      <c r="E42" s="6">
+        <v>0</v>
+      </c>
       <c r="F42" s="7">
         <f t="shared" si="5"/>
-        <v>18.900000000000002</v>
+        <v>27</v>
       </c>
       <c r="G42" s="7">
         <f t="shared" si="6"/>
@@ -2549,15 +2569,15 @@
       </c>
       <c r="I42" s="7">
         <f t="shared" si="2"/>
-        <v>360</v>
+        <v>408</v>
       </c>
       <c r="J42" s="7">
         <f t="shared" si="3"/>
-        <v>17.400000000000002</v>
+        <v>27</v>
       </c>
       <c r="K42" s="9">
         <f t="shared" si="4"/>
-        <v>0.15</v>
+        <v>0.13235294117647059</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2569,11 +2589,15 @@
         <v>10</v>
       </c>
       <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
+      <c r="D43" s="6">
+        <v>0</v>
+      </c>
+      <c r="E43" s="6">
+        <v>0</v>
+      </c>
       <c r="F43" s="7">
         <f t="shared" si="5"/>
-        <v>17.400000000000002</v>
+        <v>27</v>
       </c>
       <c r="G43" s="7">
         <f t="shared" si="6"/>
@@ -2585,15 +2609,15 @@
       </c>
       <c r="I43" s="7">
         <f t="shared" si="2"/>
-        <v>360</v>
+        <v>408</v>
       </c>
       <c r="J43" s="7">
         <f t="shared" si="3"/>
-        <v>15.900000000000002</v>
+        <v>27</v>
       </c>
       <c r="K43" s="9">
         <f t="shared" si="4"/>
-        <v>0.15</v>
+        <v>0.13235294117647059</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -2605,11 +2629,15 @@
         <v>18</v>
       </c>
       <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
+      <c r="D44" s="6">
+        <v>0</v>
+      </c>
+      <c r="E44" s="6">
+        <v>12</v>
+      </c>
       <c r="F44" s="7">
         <f t="shared" si="5"/>
-        <v>15.900000000000002</v>
+        <v>27</v>
       </c>
       <c r="G44" s="7">
         <f t="shared" si="6"/>
@@ -2621,15 +2649,15 @@
       </c>
       <c r="I44" s="7">
         <f t="shared" si="2"/>
-        <v>360</v>
+        <v>408</v>
       </c>
       <c r="J44" s="7">
         <f t="shared" si="3"/>
-        <v>13.200000000000003</v>
+        <v>27</v>
       </c>
       <c r="K44" s="9">
         <f t="shared" si="4"/>
-        <v>0.15</v>
+        <v>0.12857142857142856</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2641,11 +2669,15 @@
         <v>18</v>
       </c>
       <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
+      <c r="D45" s="6">
+        <v>0</v>
+      </c>
+      <c r="E45" s="6">
+        <v>18</v>
+      </c>
       <c r="F45" s="7">
         <f t="shared" si="5"/>
-        <v>13.200000000000003</v>
+        <v>27</v>
       </c>
       <c r="G45" s="7">
         <f t="shared" si="6"/>
@@ -2657,15 +2689,15 @@
       </c>
       <c r="I45" s="7">
         <f t="shared" si="2"/>
-        <v>360</v>
+        <v>420</v>
       </c>
       <c r="J45" s="7">
         <f t="shared" si="3"/>
-        <v>10.500000000000004</v>
+        <v>27</v>
       </c>
       <c r="K45" s="9">
         <f t="shared" si="4"/>
-        <v>0.15</v>
+        <v>0.12328767123287671</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2677,11 +2709,15 @@
         <v>18</v>
       </c>
       <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
+      <c r="D46" s="6">
+        <v>0</v>
+      </c>
+      <c r="E46" s="6">
+        <v>18</v>
+      </c>
       <c r="F46" s="7">
         <f t="shared" si="5"/>
-        <v>10.500000000000004</v>
+        <v>27</v>
       </c>
       <c r="G46" s="7">
         <f t="shared" si="6"/>
@@ -2693,15 +2729,15 @@
       </c>
       <c r="I46" s="7">
         <f t="shared" si="2"/>
-        <v>360</v>
+        <v>438</v>
       </c>
       <c r="J46" s="7">
         <f t="shared" si="3"/>
-        <v>7.8000000000000043</v>
+        <v>27</v>
       </c>
       <c r="K46" s="9">
         <f t="shared" si="4"/>
-        <v>0.15</v>
+        <v>0.11842105263157894</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -2713,11 +2749,15 @@
         <v>18</v>
       </c>
       <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
+      <c r="D47" s="6">
+        <v>0</v>
+      </c>
+      <c r="E47" s="6">
+        <v>18</v>
+      </c>
       <c r="F47" s="7">
         <f t="shared" si="5"/>
-        <v>7.8000000000000043</v>
+        <v>27</v>
       </c>
       <c r="G47" s="7">
         <f t="shared" si="6"/>
@@ -2729,15 +2769,15 @@
       </c>
       <c r="I47" s="7">
         <f t="shared" si="2"/>
-        <v>360</v>
+        <v>456</v>
       </c>
       <c r="J47" s="7">
         <f t="shared" si="3"/>
-        <v>5.100000000000005</v>
+        <v>27</v>
       </c>
       <c r="K47" s="9">
         <f t="shared" si="4"/>
-        <v>0.15</v>
+        <v>0.11392405063291139</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2749,11 +2789,15 @@
         <v>21</v>
       </c>
       <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
+      <c r="D48" s="6">
+        <v>0</v>
+      </c>
+      <c r="E48" s="6">
+        <v>2</v>
+      </c>
       <c r="F48" s="7">
         <f t="shared" si="5"/>
-        <v>5.100000000000005</v>
+        <v>27</v>
       </c>
       <c r="G48" s="7">
         <f t="shared" si="6"/>
@@ -2765,15 +2809,15 @@
       </c>
       <c r="I48" s="7">
         <f t="shared" si="2"/>
-        <v>360</v>
+        <v>474</v>
       </c>
       <c r="J48" s="7">
         <f t="shared" si="3"/>
-        <v>1.9500000000000051</v>
+        <v>27</v>
       </c>
       <c r="K48" s="9">
         <f t="shared" si="4"/>
-        <v>0.15</v>
+        <v>0.1134453781512605</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -2785,11 +2829,15 @@
         <v>21</v>
       </c>
       <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
+      <c r="D49" s="6">
+        <v>0</v>
+      </c>
+      <c r="E49" s="6">
+        <v>3</v>
+      </c>
       <c r="F49" s="7">
         <f t="shared" si="5"/>
-        <v>1.9500000000000051</v>
+        <v>27</v>
       </c>
       <c r="G49" s="7">
         <f t="shared" si="6"/>
@@ -2801,15 +2849,15 @@
       </c>
       <c r="I49" s="7">
         <f t="shared" si="2"/>
-        <v>360</v>
+        <v>476</v>
       </c>
       <c r="J49" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="K49" s="9">
         <f t="shared" si="4"/>
-        <v>0.15</v>
+        <v>0.11273486430062631</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -2821,11 +2869,15 @@
         <v>21</v>
       </c>
       <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
+      <c r="D50" s="6">
+        <v>0</v>
+      </c>
+      <c r="E50" s="6">
+        <v>0</v>
+      </c>
       <c r="F50" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G50" s="7">
         <f t="shared" si="6"/>
@@ -2837,15 +2889,15 @@
       </c>
       <c r="I50" s="7">
         <f t="shared" si="2"/>
-        <v>360</v>
+        <v>479</v>
       </c>
       <c r="J50" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="K50" s="9">
         <f t="shared" si="4"/>
-        <v>0.15</v>
+        <v>0.11273486430062631</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -2857,11 +2909,15 @@
         <v>21</v>
       </c>
       <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
+      <c r="D51" s="6">
+        <v>3</v>
+      </c>
+      <c r="E51" s="6">
+        <v>18</v>
+      </c>
       <c r="F51" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G51" s="7">
         <f t="shared" si="6"/>
@@ -2869,19 +2925,19 @@
       </c>
       <c r="H51" s="7">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I51" s="7">
         <f t="shared" si="2"/>
-        <v>360</v>
+        <v>479</v>
       </c>
       <c r="J51" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="K51" s="9">
         <f t="shared" si="4"/>
-        <v>0.15</v>
+        <v>0.11468812877263582</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -2893,36 +2949,40 @@
         <v>21</v>
       </c>
       <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
+      <c r="D52" s="6">
+        <v>1</v>
+      </c>
+      <c r="E52" s="6">
+        <v>18</v>
+      </c>
       <c r="F52" s="7">
         <f>J51+C52</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G52" s="7">
         <f>H51</f>
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H52" s="7">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I52" s="7">
         <f>I51+E51</f>
-        <v>360</v>
+        <v>497</v>
       </c>
       <c r="J52" s="7">
         <f>MAX(IF(OR(ISBLANK(D52),ISBLANK(E52)),F52-K51*B52,F52-D52),0)</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="K52" s="9">
         <f>IF(OR(ISBLANK(D52),ISBLANK(E52)),K51,H52/(I52+E52))</f>
-        <v>0.15</v>
+        <v>0.11262135922330097</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
-        <f t="shared" ref="A53:A55" si="7">A52+7</f>
+        <f t="shared" ref="A53:A58" si="7">A52+7</f>
         <v>43174</v>
       </c>
       <c r="B53" s="6">
@@ -2930,30 +2990,32 @@
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
+      <c r="E53" s="6">
+        <v>18</v>
+      </c>
       <c r="F53" s="7">
         <f t="shared" ref="F53:F55" si="8">J52+C53</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G53" s="7">
         <f t="shared" ref="G53:G55" si="9">H52</f>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H53" s="7">
         <f t="shared" ref="H53:H55" si="10">G53+D53</f>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I53" s="7">
         <f t="shared" ref="I53:I55" si="11">I52+E52</f>
-        <v>360</v>
+        <v>515</v>
       </c>
       <c r="J53" s="7">
         <f t="shared" ref="J53:J55" si="12">MAX(IF(OR(ISBLANK(D53),ISBLANK(E53)),F53-K52*B53,F53-D53),0)</f>
-        <v>0</v>
+        <v>20.634951456310681</v>
       </c>
       <c r="K53" s="9">
         <f t="shared" ref="K53:K55" si="13">IF(OR(ISBLANK(D53),ISBLANK(E53)),K52,H53/(I53+E53))</f>
-        <v>0.15</v>
+        <v>0.11262135922330097</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -2966,30 +3028,32 @@
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
+      <c r="E54" s="6">
+        <v>18</v>
+      </c>
       <c r="F54" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>20.634951456310681</v>
       </c>
       <c r="G54" s="7">
         <f t="shared" si="9"/>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H54" s="7">
         <f t="shared" si="10"/>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I54" s="7">
         <f t="shared" si="11"/>
-        <v>360</v>
+        <v>533</v>
       </c>
       <c r="J54" s="7">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>18.269902912621362</v>
       </c>
       <c r="K54" s="9">
         <f t="shared" si="13"/>
-        <v>0.15</v>
+        <v>0.11262135922330097</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3002,53 +3066,167 @@
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
+      <c r="E55" s="6">
+        <v>12</v>
+      </c>
       <c r="F55" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>18.269902912621362</v>
       </c>
       <c r="G55" s="7">
         <f t="shared" si="9"/>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H55" s="7">
         <f t="shared" si="10"/>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I55" s="7">
         <f t="shared" si="11"/>
-        <v>360</v>
+        <v>551</v>
       </c>
       <c r="J55" s="7">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>15.904854368932043</v>
       </c>
       <c r="K55" s="9">
         <f t="shared" si="13"/>
-        <v>0.15</v>
+        <v>0.11262135922330097</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="10"/>
-      <c r="B56" s="11">
+      <c r="A56" s="5">
+        <f t="shared" si="7"/>
+        <v>43195</v>
+      </c>
+      <c r="B56" s="6">
+        <v>22</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6">
+        <v>18</v>
+      </c>
+      <c r="F56" s="7">
+        <f t="shared" ref="F56:F57" si="14">J55+C56</f>
+        <v>15.904854368932043</v>
+      </c>
+      <c r="G56" s="7">
+        <f t="shared" ref="G56:G57" si="15">H55</f>
+        <v>58</v>
+      </c>
+      <c r="H56" s="7">
+        <f t="shared" ref="H56:H57" si="16">G56+D56</f>
+        <v>58</v>
+      </c>
+      <c r="I56" s="7">
+        <f t="shared" ref="I56:I57" si="17">I55+E55</f>
+        <v>563</v>
+      </c>
+      <c r="J56" s="7">
+        <f t="shared" ref="J56:J57" si="18">MAX(IF(OR(ISBLANK(D56),ISBLANK(E56)),F56-K55*B56,F56-D56),0)</f>
+        <v>13.427184466019421</v>
+      </c>
+      <c r="K56" s="9">
+        <f t="shared" ref="K56:K57" si="19">IF(OR(ISBLANK(D56),ISBLANK(E56)),K55,H56/(I56+E56))</f>
+        <v>0.11262135922330097</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <f t="shared" si="7"/>
+        <v>43202</v>
+      </c>
+      <c r="B57" s="6">
+        <v>23</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="7">
+        <f t="shared" si="14"/>
+        <v>13.427184466019421</v>
+      </c>
+      <c r="G57" s="7">
+        <f t="shared" si="15"/>
+        <v>58</v>
+      </c>
+      <c r="H57" s="7">
+        <f t="shared" si="16"/>
+        <v>58</v>
+      </c>
+      <c r="I57" s="7">
+        <f t="shared" si="17"/>
+        <v>581</v>
+      </c>
+      <c r="J57" s="7">
+        <f t="shared" si="18"/>
+        <v>10.836893203883498</v>
+      </c>
+      <c r="K57" s="9">
+        <f t="shared" si="19"/>
+        <v>0.11262135922330097</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <f t="shared" si="7"/>
+        <v>43209</v>
+      </c>
+      <c r="B58" s="6">
+        <v>24</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6">
+        <v>2</v>
+      </c>
+      <c r="F58" s="7">
+        <f t="shared" ref="F58" si="20">J57+C58</f>
+        <v>10.836893203883498</v>
+      </c>
+      <c r="G58" s="7">
+        <f t="shared" ref="G58" si="21">H57</f>
+        <v>58</v>
+      </c>
+      <c r="H58" s="7">
+        <f t="shared" ref="H58" si="22">G58+D58</f>
+        <v>58</v>
+      </c>
+      <c r="I58" s="7">
+        <f t="shared" ref="I58" si="23">I57+E57</f>
+        <v>581</v>
+      </c>
+      <c r="J58" s="7">
+        <f t="shared" ref="J58" si="24">MAX(IF(OR(ISBLANK(D58),ISBLANK(E58)),F58-K57*B58,F58-D58),0)</f>
+        <v>8.1339805825242752</v>
+      </c>
+      <c r="K58" s="9">
+        <f t="shared" ref="K58" si="25">IF(OR(ISBLANK(D58),ISBLANK(E58)),K57,H58/(I58+E58))</f>
+        <v>0.11262135922330097</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="10"/>
+      <c r="B59" s="11">
         <f>SUM(B7:B31)</f>
         <v>271</v>
       </c>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11">
+      <c r="C59" s="11"/>
+      <c r="D59" s="11">
         <f>AVERAGE(D7:D55)</f>
-        <v>1.7419354838709677</v>
-      </c>
-      <c r="E56" s="11">
-        <f>AVERAGE(E7:E55)</f>
-        <v>11.612903225806452</v>
-      </c>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="12"/>
+        <v>1.2608695652173914</v>
+      </c>
+      <c r="E59" s="11">
+        <f>AVERAGE(E7:E56)</f>
+        <v>11.62</v>
+      </c>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
